--- a/output/2023_ww_de_prt_lsv.xlsx
+++ b/output/2023_ww_de_prt_lsv.xlsx
@@ -1,20 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neon/Desktop/pdf-to-data/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511982A-AC12-E44B-8B14-AEADFB041E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="28540" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$385</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="50">
   <si>
     <t>Year</t>
   </si>
@@ -145,7 +167,7 @@
     <t>Haus Düsse (Oberkassel)</t>
   </si>
   <si>
-    <t>Lage-Heiden</t>
+    <t>Hagen-Leidenhausen</t>
   </si>
   <si>
     <t>Greven</t>
@@ -160,14 +182,17 @@
     <t>intensive</t>
   </si>
   <si>
+    <t>extensive</t>
+  </si>
+  <si>
     <t>winterweizen-sv-2023.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +255,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -308,6 +341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,9 +376,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,14 +552,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="J385" sqref="J385"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -579,10 +626,10 @@
         <v>96.61</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -608,10 +655,10 @@
         <v>101.46</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -637,10 +684,10 @@
         <v>103.79</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -666,10 +713,10 @@
         <v>96.28</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -692,13 +739,13 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>87.09999999999999</v>
+        <v>87.1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -721,13 +768,13 @@
         <v>88</v>
       </c>
       <c r="H7">
-        <v>89.76000000000001</v>
+        <v>89.76</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -750,13 +797,13 @@
         <v>89</v>
       </c>
       <c r="H8">
-        <v>96.20999999999999</v>
+        <v>96.21</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -779,13 +826,13 @@
         <v>97</v>
       </c>
       <c r="H9">
-        <v>90.98999999999999</v>
+        <v>90.99</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -811,10 +858,10 @@
         <v>106.69</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -840,10 +887,10 @@
         <v>113.83</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -869,10 +916,10 @@
         <v>105.8</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -895,13 +942,13 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>87.09999999999999</v>
+        <v>87.1</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2023</v>
       </c>
@@ -927,10 +974,10 @@
         <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -956,10 +1003,10 @@
         <v>111.34</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2023</v>
       </c>
@@ -985,10 +1032,10 @@
         <v>90.05</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -1014,10 +1061,10 @@
         <v>105.65</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -1043,10 +1090,10 @@
         <v>110.48</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -1072,10 +1119,10 @@
         <v>100.51</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2023</v>
       </c>
@@ -1101,10 +1148,10 @@
         <v>86.23</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2023</v>
       </c>
@@ -1130,10 +1177,10 @@
         <v>94.86</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2023</v>
       </c>
@@ -1159,10 +1206,10 @@
         <v>102.69</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2023</v>
       </c>
@@ -1188,10 +1235,10 @@
         <v>90.05</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2023</v>
       </c>
@@ -1217,10 +1264,10 @@
         <v>103.55</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -1246,10 +1293,10 @@
         <v>108.25</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2023</v>
       </c>
@@ -1275,10 +1322,10 @@
         <v>94.16</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2023</v>
       </c>
@@ -1304,10 +1351,10 @@
         <v>83.62</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2023</v>
       </c>
@@ -1333,10 +1380,10 @@
         <v>98.94</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2023</v>
       </c>
@@ -1362,10 +1409,10 @@
         <v>92.97</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -1391,10 +1438,10 @@
         <v>86.3</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2023</v>
       </c>
@@ -1420,10 +1467,10 @@
         <v>102.51</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2023</v>
       </c>
@@ -1449,10 +1496,10 @@
         <v>111.6</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -1478,10 +1525,10 @@
         <v>105.8</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -1507,10 +1554,10 @@
         <v>78.39</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2023</v>
       </c>
@@ -1536,10 +1583,10 @@
         <v>100.98</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2023</v>
       </c>
@@ -1565,10 +1612,10 @@
         <v>110.26</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2023</v>
       </c>
@@ -1594,10 +1641,10 @@
         <v>93.8</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2023</v>
       </c>
@@ -1623,10 +1670,10 @@
         <v>101.46</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2023</v>
       </c>
@@ -1652,10 +1699,10 @@
         <v>114.95</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2023</v>
       </c>
@@ -1681,10 +1728,10 @@
         <v>113.21</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2023</v>
       </c>
@@ -1707,13 +1754,13 @@
         <v>100</v>
       </c>
       <c r="H41">
-        <v>87.09999999999999</v>
+        <v>87.1</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2023</v>
       </c>
@@ -1739,10 +1786,10 @@
         <v>108.12</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2023</v>
       </c>
@@ -1768,10 +1815,10 @@
         <v>116.75</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2023</v>
       </c>
@@ -1797,10 +1844,10 @@
         <v>105.06</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2023</v>
       </c>
@@ -1826,10 +1873,10 @@
         <v>103.55</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -1855,10 +1902,10 @@
         <v>113.83</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2023</v>
       </c>
@@ -1884,10 +1931,10 @@
         <v>107.92</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -1910,13 +1957,13 @@
         <v>103</v>
       </c>
       <c r="H48">
-        <v>89.70999999999999</v>
+        <v>89.71</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2023</v>
       </c>
@@ -1942,10 +1989,10 @@
         <v>93.84</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2023</v>
       </c>
@@ -1971,10 +2018,10 @@
         <v>104.86</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2023</v>
       </c>
@@ -1997,13 +2044,13 @@
         <v>97</v>
       </c>
       <c r="H51">
-        <v>90.98999999999999</v>
+        <v>90.99</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2023</v>
       </c>
@@ -2029,10 +2076,10 @@
         <v>104.6</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -2058,10 +2105,10 @@
         <v>112.72</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2023</v>
       </c>
@@ -2087,10 +2134,10 @@
         <v>101.57</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2023</v>
       </c>
@@ -2116,10 +2163,10 @@
         <v>85.36</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2023</v>
       </c>
@@ -2145,10 +2192,10 @@
         <v>100.98</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2023</v>
       </c>
@@ -2174,10 +2221,10 @@
         <v>109.18</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2023</v>
       </c>
@@ -2203,10 +2250,10 @@
         <v>93.8</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2023</v>
       </c>
@@ -2232,10 +2279,10 @@
         <v>102.51</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2023</v>
       </c>
@@ -2261,10 +2308,10 @@
         <v>112.72</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2023</v>
       </c>
@@ -2290,10 +2337,10 @@
         <v>110.03</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2023</v>
       </c>
@@ -2319,10 +2366,10 @@
         <v>97.55</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2023</v>
       </c>
@@ -2348,10 +2395,10 @@
         <v>108.12</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2023</v>
       </c>
@@ -2377,10 +2424,10 @@
         <v>112.42</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2023</v>
       </c>
@@ -2406,10 +2453,10 @@
         <v>93.8</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2023</v>
       </c>
@@ -2435,10 +2482,10 @@
         <v>103.55</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2023</v>
       </c>
@@ -2464,10 +2511,10 @@
         <v>110.48</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2023</v>
       </c>
@@ -2493,10 +2540,10 @@
         <v>106.86</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2023</v>
       </c>
@@ -2522,10 +2569,10 @@
         <v>82.75</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2023</v>
       </c>
@@ -2548,13 +2595,13 @@
         <v>95</v>
       </c>
       <c r="H70">
-        <v>96.90000000000001</v>
+        <v>96.9</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2023</v>
       </c>
@@ -2580,10 +2627,10 @@
         <v>107.02</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2023</v>
       </c>
@@ -2609,10 +2656,10 @@
         <v>88.17</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2023</v>
       </c>
@@ -2638,10 +2685,10 @@
         <v>102.51</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2023</v>
       </c>
@@ -2667,10 +2714,10 @@
         <v>110.48</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2023</v>
       </c>
@@ -2696,10 +2743,10 @@
         <v>106.86</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2023</v>
       </c>
@@ -2725,10 +2772,10 @@
         <v>80.13</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2023</v>
       </c>
@@ -2754,10 +2801,10 @@
         <v>106.08</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2023</v>
       </c>
@@ -2783,10 +2830,10 @@
         <v>109.18</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2023</v>
       </c>
@@ -2809,13 +2856,13 @@
         <v>106</v>
       </c>
       <c r="H79">
-        <v>99.43000000000001</v>
+        <v>99.43</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2023</v>
       </c>
@@ -2841,10 +2888,10 @@
         <v>107.74</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2023</v>
       </c>
@@ -2870,10 +2917,10 @@
         <v>108.25</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2023</v>
       </c>
@@ -2899,10 +2946,10 @@
         <v>104.74</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2023</v>
       </c>
@@ -2928,10 +2975,10 @@
         <v>85.36</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2023</v>
       </c>
@@ -2954,13 +3001,13 @@
         <v>98</v>
       </c>
       <c r="H84">
-        <v>99.95999999999999</v>
+        <v>99.96</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2023</v>
       </c>
@@ -2986,10 +3033,10 @@
         <v>105.94</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2023</v>
       </c>
@@ -3012,13 +3059,13 @@
         <v>106</v>
       </c>
       <c r="H86">
-        <v>99.43000000000001</v>
+        <v>99.43</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2023</v>
       </c>
@@ -3044,10 +3091,10 @@
         <v>109.83</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2023</v>
       </c>
@@ -3073,10 +3120,10 @@
         <v>117.18</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2023</v>
       </c>
@@ -3102,10 +3149,10 @@
         <v>112.15</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2023</v>
       </c>
@@ -3131,10 +3178,10 @@
         <v>93.2</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2023</v>
       </c>
@@ -3160,10 +3207,10 @@
         <v>107.1</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2023</v>
       </c>
@@ -3189,10 +3236,10 @@
         <v>116.75</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2023</v>
       </c>
@@ -3218,10 +3265,10 @@
         <v>85.36</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -3244,13 +3291,13 @@
         <v>94</v>
       </c>
       <c r="H94">
-        <v>98.31999999999999</v>
+        <v>98.32</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2023</v>
       </c>
@@ -3276,10 +3323,10 @@
         <v>109.37</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2023</v>
       </c>
@@ -3305,10 +3352,10 @@
         <v>105.8</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2023</v>
       </c>
@@ -3334,10 +3381,10 @@
         <v>81</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2023</v>
       </c>
@@ -3363,10 +3410,10 @@
         <v>108.12</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2023</v>
       </c>
@@ -3392,10 +3439,10 @@
         <v>110.26</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2023</v>
       </c>
@@ -3421,10 +3468,10 @@
         <v>97.55</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2023</v>
       </c>
@@ -3450,10 +3497,10 @@
         <v>112.97</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2023</v>
       </c>
@@ -3479,10 +3526,10 @@
         <v>121.64</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2023</v>
       </c>
@@ -3508,10 +3555,10 @@
         <v>106.86</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2023</v>
       </c>
@@ -3534,13 +3581,13 @@
         <v>100</v>
       </c>
       <c r="H104">
-        <v>87.09999999999999</v>
+        <v>87.1</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2023</v>
       </c>
@@ -3566,10 +3613,10 @@
         <v>108.12</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2023</v>
       </c>
@@ -3595,10 +3642,10 @@
         <v>115.67</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2023</v>
       </c>
@@ -3621,13 +3668,13 @@
         <v>105</v>
       </c>
       <c r="H107">
-        <v>98.48999999999999</v>
+        <v>98.49</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2023</v>
       </c>
@@ -3653,10 +3700,10 @@
         <v>103.55</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2023</v>
       </c>
@@ -3682,10 +3729,10 @@
         <v>109.37</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2023</v>
       </c>
@@ -3711,10 +3758,10 @@
         <v>104.74</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2023</v>
       </c>
@@ -3737,13 +3784,13 @@
         <v>103</v>
       </c>
       <c r="H111">
-        <v>89.70999999999999</v>
+        <v>89.71</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2023</v>
       </c>
@@ -3769,10 +3816,10 @@
         <v>98.94</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2023</v>
       </c>
@@ -3798,10 +3845,10 @@
         <v>108.1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2023</v>
       </c>
@@ -3824,13 +3871,13 @@
         <v>88</v>
       </c>
       <c r="H114">
-        <v>82.54000000000001</v>
+        <v>82.54</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2023</v>
       </c>
@@ -3856,10 +3903,10 @@
         <v>99.37</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2023</v>
       </c>
@@ -3885,10 +3932,10 @@
         <v>108.25</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2023</v>
       </c>
@@ -3914,10 +3961,10 @@
         <v>95.22</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2023</v>
       </c>
@@ -3943,10 +3990,10 @@
         <v>83.62</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2023</v>
       </c>
@@ -3969,13 +4016,13 @@
         <v>95</v>
       </c>
       <c r="H119">
-        <v>96.90000000000001</v>
+        <v>96.9</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2023</v>
       </c>
@@ -4001,10 +4048,10 @@
         <v>100.53</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2023</v>
       </c>
@@ -4030,10 +4077,10 @@
         <v>103.18</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2023</v>
       </c>
@@ -4059,10 +4106,10 @@
         <v>105.65</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2023</v>
       </c>
@@ -4088,10 +4135,10 @@
         <v>118.3</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2023</v>
       </c>
@@ -4117,10 +4164,10 @@
         <v>102.63</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2023</v>
       </c>
@@ -4143,13 +4190,13 @@
         <v>103</v>
       </c>
       <c r="H125">
-        <v>89.70999999999999</v>
+        <v>89.71</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2023</v>
       </c>
@@ -4175,10 +4222,10 @@
         <v>105.06</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2023</v>
       </c>
@@ -4204,10 +4251,10 @@
         <v>103.78</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2023</v>
       </c>
@@ -4233,10 +4280,10 @@
         <v>106.93</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2023</v>
       </c>
@@ -4262,10 +4309,10 @@
         <v>111.92</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2023</v>
       </c>
@@ -4291,10 +4338,10 @@
         <v>118.3</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2023</v>
       </c>
@@ -4320,10 +4367,10 @@
         <v>104.74</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2023</v>
       </c>
@@ -4349,10 +4396,10 @@
         <v>88.84</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2023</v>
       </c>
@@ -4378,10 +4425,10 @@
         <v>108.12</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2023</v>
       </c>
@@ -4407,10 +4454,10 @@
         <v>111.34</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2023</v>
       </c>
@@ -4436,10 +4483,10 @@
         <v>103.18</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2023</v>
       </c>
@@ -4465,10 +4512,10 @@
         <v>116.11</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2023</v>
       </c>
@@ -4494,10 +4541,10 @@
         <v>117.18</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2023</v>
       </c>
@@ -4523,10 +4570,10 @@
         <v>112.15</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2023</v>
       </c>
@@ -4552,10 +4599,10 @@
         <v>90.58</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2023</v>
       </c>
@@ -4581,10 +4628,10 @@
         <v>102</v>
       </c>
       <c r="I140" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2023</v>
       </c>
@@ -4610,10 +4657,10 @@
         <v>107.02</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2023</v>
       </c>
@@ -4636,13 +4683,13 @@
         <v>105</v>
       </c>
       <c r="H142">
-        <v>98.48999999999999</v>
+        <v>98.49</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2023</v>
       </c>
@@ -4668,10 +4715,10 @@
         <v>105.65</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2023</v>
       </c>
@@ -4697,10 +4744,10 @@
         <v>116.06</v>
       </c>
       <c r="I144" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2023</v>
       </c>
@@ -4726,10 +4773,10 @@
         <v>105.8</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2023</v>
       </c>
@@ -4752,13 +4799,13 @@
         <v>108</v>
       </c>
       <c r="H146">
-        <v>94.06999999999999</v>
+        <v>94.07</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2023</v>
       </c>
@@ -4784,10 +4831,10 @@
         <v>111.18</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2023</v>
       </c>
@@ -4813,10 +4860,10 @@
         <v>113.5</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2023</v>
       </c>
@@ -4839,13 +4886,13 @@
         <v>97</v>
       </c>
       <c r="H149">
-        <v>90.98999999999999</v>
+        <v>90.99</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2023</v>
       </c>
@@ -4871,10 +4918,10 @@
         <v>108.78</v>
       </c>
       <c r="I150" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2023</v>
       </c>
@@ -4900,10 +4947,10 @@
         <v>118.3</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2023</v>
       </c>
@@ -4929,10 +4976,10 @@
         <v>108.97</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2023</v>
       </c>
@@ -4958,10 +5005,10 @@
         <v>94.94</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2023</v>
       </c>
@@ -4987,10 +5034,10 @@
         <v>111.18</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2023</v>
       </c>
@@ -5016,10 +5063,10 @@
         <v>115.67</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2023</v>
       </c>
@@ -5045,10 +5092,10 @@
         <v>100.37</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2023</v>
       </c>
@@ -5074,10 +5121,10 @@
         <v>108.78</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2023</v>
       </c>
@@ -5103,10 +5150,10 @@
         <v>113.83</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2023</v>
       </c>
@@ -5132,10 +5179,10 @@
         <v>102.63</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2023</v>
       </c>
@@ -5161,10 +5208,10 @@
         <v>88.84</v>
       </c>
       <c r="I160" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2023</v>
       </c>
@@ -5190,10 +5237,10 @@
         <v>105.06</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2023</v>
       </c>
@@ -5219,10 +5266,10 @@
         <v>100.53</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2023</v>
       </c>
@@ -5248,10 +5295,10 @@
         <v>105.99</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2023</v>
       </c>
@@ -5277,10 +5324,10 @@
         <v>112.97</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2023</v>
       </c>
@@ -5306,10 +5353,10 @@
         <v>118.3</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2023</v>
       </c>
@@ -5335,10 +5382,10 @@
         <v>111.09</v>
       </c>
       <c r="I166" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2023</v>
       </c>
@@ -5364,10 +5411,10 @@
         <v>97.55</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2023</v>
       </c>
@@ -5393,10 +5440,10 @@
         <v>103.02</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2023</v>
       </c>
@@ -5422,10 +5469,10 @@
         <v>108.1</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2023</v>
       </c>
@@ -5451,10 +5498,10 @@
         <v>90.05</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2023</v>
       </c>
@@ -5480,10 +5527,10 @@
         <v>110.88</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2023</v>
       </c>
@@ -5509,10 +5556,10 @@
         <v>112.72</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2023</v>
       </c>
@@ -5538,10 +5585,10 @@
         <v>110.03</v>
       </c>
       <c r="I173" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2023</v>
       </c>
@@ -5567,10 +5614,10 @@
         <v>87.97</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2023</v>
       </c>
@@ -5596,10 +5643,10 @@
         <v>110.16</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2023</v>
       </c>
@@ -5625,10 +5672,10 @@
         <v>118.91</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2023</v>
       </c>
@@ -5651,13 +5698,13 @@
         <v>105</v>
       </c>
       <c r="H177">
-        <v>98.48999999999999</v>
+        <v>98.49</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2023</v>
       </c>
@@ -5683,10 +5730,10 @@
         <v>111.92</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2023</v>
       </c>
@@ -5712,10 +5759,10 @@
         <v>117.18</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2023</v>
       </c>
@@ -5741,10 +5788,10 @@
         <v>104.74</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2023</v>
       </c>
@@ -5770,10 +5817,10 @@
         <v>91.45</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2023</v>
       </c>
@@ -5799,10 +5846,10 @@
         <v>115.26</v>
       </c>
       <c r="I182" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2023</v>
       </c>
@@ -5828,10 +5875,10 @@
         <v>107.02</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2023</v>
       </c>
@@ -5857,10 +5904,10 @@
         <v>106.02</v>
       </c>
       <c r="I184" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2023</v>
       </c>
@@ -5886,10 +5933,10 @@
         <v>100.51</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2023</v>
       </c>
@@ -5915,10 +5962,10 @@
         <v>88.84</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2023</v>
       </c>
@@ -5944,10 +5991,10 @@
         <v>102</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2023</v>
       </c>
@@ -5973,10 +6020,10 @@
         <v>102.69</v>
       </c>
       <c r="I188" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2023</v>
       </c>
@@ -6002,10 +6049,10 @@
         <v>97.55</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2023</v>
       </c>
@@ -6031,10 +6078,10 @@
         <v>105.65</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2023</v>
       </c>
@@ -6060,10 +6107,10 @@
         <v>100.37</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2023</v>
       </c>
@@ -6089,10 +6136,10 @@
         <v>105.65</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2023</v>
       </c>
@@ -6115,13 +6162,5588 @@
         <v>88</v>
       </c>
       <c r="H193">
-        <v>76.65000000000001</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="I193" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>2023</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" t="s">
+        <v>40</v>
+      </c>
+      <c r="F194" t="s">
+        <v>48</v>
+      </c>
+      <c r="G194">
+        <v>99</v>
+      </c>
+      <c r="H194">
+        <v>92.86</v>
+      </c>
+      <c r="I194" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>2023</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" t="s">
+        <v>41</v>
+      </c>
+      <c r="F195" t="s">
+        <v>48</v>
+      </c>
+      <c r="G195">
+        <v>88</v>
+      </c>
+      <c r="H195">
+        <v>92.05</v>
+      </c>
+      <c r="I195" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>2023</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" t="s">
+        <v>42</v>
+      </c>
+      <c r="F196" t="s">
+        <v>48</v>
+      </c>
+      <c r="G196">
+        <v>83</v>
+      </c>
+      <c r="H196">
+        <v>92.63</v>
+      </c>
+      <c r="I196" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>2023</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" t="s">
+        <v>43</v>
+      </c>
+      <c r="F197" t="s">
+        <v>48</v>
+      </c>
+      <c r="G197">
+        <v>80</v>
+      </c>
+      <c r="H197">
+        <v>84.64</v>
+      </c>
+      <c r="I197" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>2023</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" t="s">
+        <v>44</v>
+      </c>
+      <c r="F198" t="s">
+        <v>48</v>
+      </c>
+      <c r="G198">
+        <v>92</v>
+      </c>
+      <c r="H198">
+        <v>80.13</v>
+      </c>
+      <c r="I198" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>2023</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" t="s">
+        <v>45</v>
+      </c>
+      <c r="F199" t="s">
+        <v>48</v>
+      </c>
+      <c r="G199">
+        <v>83</v>
+      </c>
+      <c r="H199">
+        <v>84.66</v>
+      </c>
+      <c r="I199" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>2023</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" t="s">
+        <v>46</v>
+      </c>
+      <c r="F200" t="s">
+        <v>48</v>
+      </c>
+      <c r="G200">
+        <v>84</v>
+      </c>
+      <c r="H200">
+        <v>90.8</v>
+      </c>
+      <c r="I200" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>2023</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" t="s">
+        <v>40</v>
+      </c>
+      <c r="F201" t="s">
+        <v>48</v>
+      </c>
+      <c r="G201">
+        <v>86</v>
+      </c>
+      <c r="H201">
+        <v>80.67</v>
+      </c>
+      <c r="I201" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>2023</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202" t="s">
+        <v>48</v>
+      </c>
+      <c r="G202">
+        <v>88</v>
+      </c>
+      <c r="H202">
+        <v>92.05</v>
+      </c>
+      <c r="I202" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>2023</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>42</v>
+      </c>
+      <c r="F203" t="s">
+        <v>48</v>
+      </c>
+      <c r="G203">
+        <v>83</v>
+      </c>
+      <c r="H203">
+        <v>92.63</v>
+      </c>
+      <c r="I203" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>2023</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>43</v>
+      </c>
+      <c r="F204" t="s">
+        <v>48</v>
+      </c>
+      <c r="G204">
+        <v>89</v>
+      </c>
+      <c r="H204">
+        <v>94.16</v>
+      </c>
+      <c r="I204" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>2023</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>44</v>
+      </c>
+      <c r="F205" t="s">
+        <v>48</v>
+      </c>
+      <c r="G205">
+        <v>85</v>
+      </c>
+      <c r="H205">
+        <v>74.03</v>
+      </c>
+      <c r="I205" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>2023</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>45</v>
+      </c>
+      <c r="F206" t="s">
+        <v>48</v>
+      </c>
+      <c r="G206">
+        <v>94</v>
+      </c>
+      <c r="H206">
+        <v>95.88</v>
+      </c>
+      <c r="I206" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2023</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>46</v>
+      </c>
+      <c r="F207" t="s">
+        <v>48</v>
+      </c>
+      <c r="G207">
+        <v>93</v>
+      </c>
+      <c r="H207">
+        <v>100.53</v>
+      </c>
+      <c r="I207" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2023</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" t="s">
+        <v>40</v>
+      </c>
+      <c r="F208" t="s">
+        <v>48</v>
+      </c>
+      <c r="G208">
+        <v>89</v>
+      </c>
+      <c r="H208">
+        <v>83.48</v>
+      </c>
+      <c r="I208" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>2023</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>41</v>
+      </c>
+      <c r="F209" t="s">
+        <v>48</v>
+      </c>
+      <c r="G209">
+        <v>83</v>
+      </c>
+      <c r="H209">
+        <v>86.82</v>
+      </c>
+      <c r="I209" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>2023</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>42</v>
+      </c>
+      <c r="F210" t="s">
+        <v>48</v>
+      </c>
+      <c r="G210">
+        <v>86</v>
+      </c>
+      <c r="H210">
+        <v>95.98</v>
+      </c>
+      <c r="I210" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>2023</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>43</v>
+      </c>
+      <c r="F211" t="s">
+        <v>48</v>
+      </c>
+      <c r="G211">
+        <v>81</v>
+      </c>
+      <c r="H211">
+        <v>85.7</v>
+      </c>
+      <c r="I211" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>2023</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>44</v>
+      </c>
+      <c r="F212" t="s">
+        <v>48</v>
+      </c>
+      <c r="G212">
+        <v>95</v>
+      </c>
+      <c r="H212">
+        <v>82.75</v>
+      </c>
+      <c r="I212" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>2023</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" t="s">
+        <v>45</v>
+      </c>
+      <c r="F213" t="s">
+        <v>48</v>
+      </c>
+      <c r="G213">
+        <v>87</v>
+      </c>
+      <c r="H213">
+        <v>88.74</v>
+      </c>
+      <c r="I213" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>2023</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" t="s">
+        <v>46</v>
+      </c>
+      <c r="F214" t="s">
+        <v>48</v>
+      </c>
+      <c r="G214">
+        <v>84</v>
+      </c>
+      <c r="H214">
+        <v>90.8</v>
+      </c>
+      <c r="I214" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>2023</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s">
+        <v>40</v>
+      </c>
+      <c r="F215" t="s">
+        <v>48</v>
+      </c>
+      <c r="G215">
+        <v>88</v>
+      </c>
+      <c r="H215">
+        <v>82.54</v>
+      </c>
+      <c r="I215" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>2023</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" t="s">
+        <v>41</v>
+      </c>
+      <c r="F216" t="s">
+        <v>48</v>
+      </c>
+      <c r="G216">
+        <v>88</v>
+      </c>
+      <c r="H216">
+        <v>92.05</v>
+      </c>
+      <c r="I216" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>2023</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" t="s">
+        <v>42</v>
+      </c>
+      <c r="F217" t="s">
+        <v>48</v>
+      </c>
+      <c r="G217">
+        <v>83</v>
+      </c>
+      <c r="H217">
+        <v>92.63</v>
+      </c>
+      <c r="I217" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>2023</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" t="s">
+        <v>43</v>
+      </c>
+      <c r="F218" t="s">
+        <v>48</v>
+      </c>
+      <c r="G218">
+        <v>80</v>
+      </c>
+      <c r="H218">
+        <v>84.64</v>
+      </c>
+      <c r="I218" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>2023</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s">
+        <v>44</v>
+      </c>
+      <c r="F219" t="s">
+        <v>48</v>
+      </c>
+      <c r="G219">
+        <v>91</v>
+      </c>
+      <c r="H219">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="I219" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>2023</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s">
+        <v>45</v>
+      </c>
+      <c r="F220" t="s">
+        <v>48</v>
+      </c>
+      <c r="G220">
+        <v>89</v>
+      </c>
+      <c r="H220">
+        <v>90.78</v>
+      </c>
+      <c r="I220" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>2023</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>46</v>
+      </c>
+      <c r="F221" t="s">
+        <v>48</v>
+      </c>
+      <c r="G221">
+        <v>79</v>
+      </c>
+      <c r="H221">
+        <v>85.4</v>
+      </c>
+      <c r="I221" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>2023</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" t="s">
+        <v>40</v>
+      </c>
+      <c r="F222" t="s">
+        <v>48</v>
+      </c>
+      <c r="G222">
+        <v>79</v>
+      </c>
+      <c r="H222">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I222" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>2023</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" t="s">
+        <v>41</v>
+      </c>
+      <c r="F223" t="s">
+        <v>48</v>
+      </c>
+      <c r="G223">
+        <v>73</v>
+      </c>
+      <c r="H223">
+        <v>76.36</v>
+      </c>
+      <c r="I223" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>2023</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" t="s">
+        <v>42</v>
+      </c>
+      <c r="F224" t="s">
+        <v>48</v>
+      </c>
+      <c r="G224">
+        <v>77</v>
+      </c>
+      <c r="H224">
+        <v>85.93</v>
+      </c>
+      <c r="I224" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>2023</v>
+      </c>
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" t="s">
+        <v>43</v>
+      </c>
+      <c r="F225" t="s">
+        <v>48</v>
+      </c>
+      <c r="G225">
+        <v>77</v>
+      </c>
+      <c r="H225">
+        <v>81.47</v>
+      </c>
+      <c r="I225" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>2023</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" t="s">
+        <v>44</v>
+      </c>
+      <c r="F226" t="s">
+        <v>48</v>
+      </c>
+      <c r="G226">
+        <v>86</v>
+      </c>
+      <c r="H226">
+        <v>74.91</v>
+      </c>
+      <c r="I226" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2023</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" t="s">
+        <v>45</v>
+      </c>
+      <c r="F227" t="s">
+        <v>48</v>
+      </c>
+      <c r="G227">
+        <v>93</v>
+      </c>
+      <c r="H227">
+        <v>94.86</v>
+      </c>
+      <c r="I227" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>2023</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" t="s">
+        <v>46</v>
+      </c>
+      <c r="F228" t="s">
+        <v>48</v>
+      </c>
+      <c r="G228">
+        <v>95</v>
+      </c>
+      <c r="H228">
+        <v>102.69</v>
+      </c>
+      <c r="I228" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>2023</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" t="s">
+        <v>40</v>
+      </c>
+      <c r="F229" t="s">
+        <v>48</v>
+      </c>
+      <c r="G229">
+        <v>78</v>
+      </c>
+      <c r="H229">
+        <v>73.16</v>
+      </c>
+      <c r="I229" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>2023</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" t="s">
+        <v>41</v>
+      </c>
+      <c r="F230" t="s">
+        <v>48</v>
+      </c>
+      <c r="G230">
+        <v>55</v>
+      </c>
+      <c r="H230">
+        <v>57.53</v>
+      </c>
+      <c r="I230" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>2023</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" t="s">
+        <v>42</v>
+      </c>
+      <c r="F231" t="s">
+        <v>48</v>
+      </c>
+      <c r="G231">
+        <v>61</v>
+      </c>
+      <c r="H231">
+        <v>68.08</v>
+      </c>
+      <c r="I231" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>2023</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" t="s">
+        <v>43</v>
+      </c>
+      <c r="F232" t="s">
+        <v>48</v>
+      </c>
+      <c r="G232">
+        <v>79</v>
+      </c>
+      <c r="H232">
+        <v>83.58</v>
+      </c>
+      <c r="I232" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>2023</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233" t="s">
+        <v>44</v>
+      </c>
+      <c r="F233" t="s">
+        <v>48</v>
+      </c>
+      <c r="G233">
+        <v>81</v>
+      </c>
+      <c r="H233">
+        <v>70.55</v>
+      </c>
+      <c r="I233" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>2023</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" t="s">
+        <v>45</v>
+      </c>
+      <c r="F234" t="s">
+        <v>48</v>
+      </c>
+      <c r="G234">
+        <v>81</v>
+      </c>
+      <c r="H234">
+        <v>82.62</v>
+      </c>
+      <c r="I234" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>2023</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" t="s">
+        <v>46</v>
+      </c>
+      <c r="F235" t="s">
+        <v>48</v>
+      </c>
+      <c r="G235">
+        <v>96</v>
+      </c>
+      <c r="H235">
+        <v>103.78</v>
+      </c>
+      <c r="I235" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>2023</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" t="s">
+        <v>40</v>
+      </c>
+      <c r="F236" t="s">
+        <v>48</v>
+      </c>
+      <c r="G236">
+        <v>101</v>
+      </c>
+      <c r="H236">
+        <v>94.74</v>
+      </c>
+      <c r="I236" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>2023</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237" t="s">
+        <v>41</v>
+      </c>
+      <c r="F237" t="s">
+        <v>48</v>
+      </c>
+      <c r="G237">
+        <v>88</v>
+      </c>
+      <c r="H237">
+        <v>92.05</v>
+      </c>
+      <c r="I237" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>2023</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" t="s">
+        <v>17</v>
+      </c>
+      <c r="E238" t="s">
+        <v>42</v>
+      </c>
+      <c r="F238" t="s">
+        <v>48</v>
+      </c>
+      <c r="G238">
+        <v>88</v>
+      </c>
+      <c r="H238">
+        <v>98.21</v>
+      </c>
+      <c r="I238" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>2023</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" t="s">
+        <v>43</v>
+      </c>
+      <c r="F239" t="s">
+        <v>48</v>
+      </c>
+      <c r="G239">
+        <v>89</v>
+      </c>
+      <c r="H239">
+        <v>94.16</v>
+      </c>
+      <c r="I239" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>2023</v>
+      </c>
+      <c r="B240" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" t="s">
+        <v>44</v>
+      </c>
+      <c r="F240" t="s">
+        <v>48</v>
+      </c>
+      <c r="G240">
+        <v>102</v>
+      </c>
+      <c r="H240">
+        <v>88.84</v>
+      </c>
+      <c r="I240" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>2023</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" t="s">
+        <v>45</v>
+      </c>
+      <c r="F241" t="s">
+        <v>48</v>
+      </c>
+      <c r="G241">
+        <v>86</v>
+      </c>
+      <c r="H241">
+        <v>87.72</v>
+      </c>
+      <c r="I241" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>2023</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" t="s">
+        <v>46</v>
+      </c>
+      <c r="F242" t="s">
+        <v>48</v>
+      </c>
+      <c r="G242">
+        <v>90</v>
+      </c>
+      <c r="H242">
+        <v>97.29</v>
+      </c>
+      <c r="I242" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>2023</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" t="s">
+        <v>18</v>
+      </c>
+      <c r="E243" t="s">
+        <v>40</v>
+      </c>
+      <c r="F243" t="s">
+        <v>48</v>
+      </c>
+      <c r="G243">
+        <v>89</v>
+      </c>
+      <c r="H243">
+        <v>83.48</v>
+      </c>
+      <c r="I243" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>2023</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" t="s">
+        <v>18</v>
+      </c>
+      <c r="E244" t="s">
+        <v>41</v>
+      </c>
+      <c r="F244" t="s">
+        <v>48</v>
+      </c>
+      <c r="G244">
+        <v>91</v>
+      </c>
+      <c r="H244">
+        <v>95.19</v>
+      </c>
+      <c r="I244" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>2023</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" t="s">
+        <v>18</v>
+      </c>
+      <c r="E245" t="s">
+        <v>42</v>
+      </c>
+      <c r="F245" t="s">
+        <v>48</v>
+      </c>
+      <c r="G245">
+        <v>88</v>
+      </c>
+      <c r="H245">
+        <v>98.21</v>
+      </c>
+      <c r="I245" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>2023</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" t="s">
+        <v>43</v>
+      </c>
+      <c r="F246" t="s">
+        <v>48</v>
+      </c>
+      <c r="G246">
+        <v>90</v>
+      </c>
+      <c r="H246">
+        <v>95.22</v>
+      </c>
+      <c r="I246" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>2023</v>
+      </c>
+      <c r="B247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" t="s">
+        <v>18</v>
+      </c>
+      <c r="E247" t="s">
+        <v>44</v>
+      </c>
+      <c r="F247" t="s">
+        <v>48</v>
+      </c>
+      <c r="G247">
+        <v>100</v>
+      </c>
+      <c r="H247">
+        <v>87.1</v>
+      </c>
+      <c r="I247" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>2023</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" t="s">
+        <v>45</v>
+      </c>
+      <c r="F248" t="s">
+        <v>48</v>
+      </c>
+      <c r="G248">
+        <v>97</v>
+      </c>
+      <c r="H248">
+        <v>98.94</v>
+      </c>
+      <c r="I248" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>2023</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" t="s">
+        <v>46</v>
+      </c>
+      <c r="F249" t="s">
+        <v>48</v>
+      </c>
+      <c r="G249">
+        <v>92</v>
+      </c>
+      <c r="H249">
+        <v>99.45</v>
+      </c>
+      <c r="I249" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>2023</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" t="s">
+        <v>19</v>
+      </c>
+      <c r="E250" t="s">
+        <v>40</v>
+      </c>
+      <c r="F250" t="s">
+        <v>48</v>
+      </c>
+      <c r="G250">
+        <v>84</v>
+      </c>
+      <c r="H250">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="I250" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>2023</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" t="s">
+        <v>41</v>
+      </c>
+      <c r="F251" t="s">
+        <v>48</v>
+      </c>
+      <c r="G251">
+        <v>73</v>
+      </c>
+      <c r="H251">
+        <v>76.36</v>
+      </c>
+      <c r="I251" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>2023</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>19</v>
+      </c>
+      <c r="E252" t="s">
+        <v>42</v>
+      </c>
+      <c r="F252" t="s">
+        <v>48</v>
+      </c>
+      <c r="G252">
+        <v>79</v>
+      </c>
+      <c r="H252">
+        <v>88.16</v>
+      </c>
+      <c r="I252" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>2023</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253" t="s">
+        <v>43</v>
+      </c>
+      <c r="F253" t="s">
+        <v>48</v>
+      </c>
+      <c r="G253">
+        <v>86</v>
+      </c>
+      <c r="H253">
+        <v>90.99</v>
+      </c>
+      <c r="I253" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>2023</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>19</v>
+      </c>
+      <c r="E254" t="s">
+        <v>44</v>
+      </c>
+      <c r="F254" t="s">
+        <v>48</v>
+      </c>
+      <c r="G254">
+        <v>89</v>
+      </c>
+      <c r="H254">
+        <v>77.52</v>
+      </c>
+      <c r="I254" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>2023</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255" t="s">
+        <v>45</v>
+      </c>
+      <c r="F255" t="s">
+        <v>48</v>
+      </c>
+      <c r="G255">
+        <v>88</v>
+      </c>
+      <c r="H255">
+        <v>89.76</v>
+      </c>
+      <c r="I255" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>2023</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>19</v>
+      </c>
+      <c r="E256" t="s">
+        <v>46</v>
+      </c>
+      <c r="F256" t="s">
+        <v>48</v>
+      </c>
+      <c r="G256">
+        <v>94</v>
+      </c>
+      <c r="H256">
+        <v>101.61</v>
+      </c>
+      <c r="I256" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>2023</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" t="s">
+        <v>20</v>
+      </c>
+      <c r="E257" t="s">
+        <v>40</v>
+      </c>
+      <c r="F257" t="s">
+        <v>48</v>
+      </c>
+      <c r="G257">
+        <v>95</v>
+      </c>
+      <c r="H257">
+        <v>89.11</v>
+      </c>
+      <c r="I257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>2023</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" t="s">
+        <v>20</v>
+      </c>
+      <c r="E258" t="s">
+        <v>41</v>
+      </c>
+      <c r="F258" t="s">
+        <v>48</v>
+      </c>
+      <c r="G258">
+        <v>91</v>
+      </c>
+      <c r="H258">
+        <v>95.19</v>
+      </c>
+      <c r="I258" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>2023</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259" t="s">
+        <v>42</v>
+      </c>
+      <c r="F259" t="s">
+        <v>48</v>
+      </c>
+      <c r="G259">
+        <v>83</v>
+      </c>
+      <c r="H259">
+        <v>92.63</v>
+      </c>
+      <c r="I259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>2023</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>43</v>
+      </c>
+      <c r="F260" t="s">
+        <v>48</v>
+      </c>
+      <c r="G260">
+        <v>89</v>
+      </c>
+      <c r="H260">
+        <v>94.16</v>
+      </c>
+      <c r="I260" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>2023</v>
+      </c>
+      <c r="B261" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261" t="s">
+        <v>44</v>
+      </c>
+      <c r="F261" t="s">
+        <v>48</v>
+      </c>
+      <c r="G261">
+        <v>92</v>
+      </c>
+      <c r="H261">
+        <v>80.13</v>
+      </c>
+      <c r="I261" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>2023</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>45</v>
+      </c>
+      <c r="F262" t="s">
+        <v>48</v>
+      </c>
+      <c r="G262">
+        <v>88</v>
+      </c>
+      <c r="H262">
+        <v>89.76</v>
+      </c>
+      <c r="I262" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>2023</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" t="s">
+        <v>20</v>
+      </c>
+      <c r="E263" t="s">
+        <v>46</v>
+      </c>
+      <c r="F263" t="s">
+        <v>48</v>
+      </c>
+      <c r="G263">
+        <v>90</v>
+      </c>
+      <c r="H263">
+        <v>97.29</v>
+      </c>
+      <c r="I263" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>2023</v>
+      </c>
+      <c r="B264" t="s">
+        <v>9</v>
+      </c>
+      <c r="C264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" t="s">
+        <v>21</v>
+      </c>
+      <c r="E264" t="s">
+        <v>40</v>
+      </c>
+      <c r="F264" t="s">
+        <v>48</v>
+      </c>
+      <c r="G264">
+        <v>89</v>
+      </c>
+      <c r="H264">
+        <v>83.48</v>
+      </c>
+      <c r="I264" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>2023</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" t="s">
+        <v>41</v>
+      </c>
+      <c r="F265" t="s">
+        <v>48</v>
+      </c>
+      <c r="G265">
+        <v>89</v>
+      </c>
+      <c r="H265">
+        <v>93.09</v>
+      </c>
+      <c r="I265" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>2023</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" t="s">
+        <v>21</v>
+      </c>
+      <c r="E266" t="s">
+        <v>42</v>
+      </c>
+      <c r="F266" t="s">
+        <v>48</v>
+      </c>
+      <c r="G266">
+        <v>87</v>
+      </c>
+      <c r="H266">
+        <v>97.09</v>
+      </c>
+      <c r="I266" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>2023</v>
+      </c>
+      <c r="B267" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" t="s">
+        <v>21</v>
+      </c>
+      <c r="E267" t="s">
+        <v>43</v>
+      </c>
+      <c r="F267" t="s">
+        <v>48</v>
+      </c>
+      <c r="G267">
+        <v>93</v>
+      </c>
+      <c r="H267">
+        <v>98.39</v>
+      </c>
+      <c r="I267" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>2023</v>
+      </c>
+      <c r="B268" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" t="s">
+        <v>21</v>
+      </c>
+      <c r="E268" t="s">
+        <v>44</v>
+      </c>
+      <c r="F268" t="s">
+        <v>48</v>
+      </c>
+      <c r="G268">
+        <v>84</v>
+      </c>
+      <c r="H268">
+        <v>73.16</v>
+      </c>
+      <c r="I268" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>2023</v>
+      </c>
+      <c r="B269" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" t="s">
+        <v>21</v>
+      </c>
+      <c r="E269" t="s">
+        <v>45</v>
+      </c>
+      <c r="F269" t="s">
+        <v>48</v>
+      </c>
+      <c r="G269">
+        <v>97</v>
+      </c>
+      <c r="H269">
+        <v>98.94</v>
+      </c>
+      <c r="I269" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>2023</v>
+      </c>
+      <c r="B270" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" t="s">
+        <v>21</v>
+      </c>
+      <c r="E270" t="s">
+        <v>46</v>
+      </c>
+      <c r="F270" t="s">
+        <v>48</v>
+      </c>
+      <c r="G270">
+        <v>94</v>
+      </c>
+      <c r="H270">
+        <v>101.61</v>
+      </c>
+      <c r="I270" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>2023</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" t="s">
+        <v>22</v>
+      </c>
+      <c r="E271" t="s">
+        <v>40</v>
+      </c>
+      <c r="F271" t="s">
+        <v>48</v>
+      </c>
+      <c r="G271">
+        <v>97</v>
+      </c>
+      <c r="H271">
+        <v>90.99</v>
+      </c>
+      <c r="I271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>2023</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" t="s">
+        <v>41</v>
+      </c>
+      <c r="F272" t="s">
+        <v>48</v>
+      </c>
+      <c r="G272">
+        <v>97</v>
+      </c>
+      <c r="H272">
+        <v>101.46</v>
+      </c>
+      <c r="I272" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>2023</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" t="s">
+        <v>22</v>
+      </c>
+      <c r="E273" t="s">
+        <v>42</v>
+      </c>
+      <c r="F273" t="s">
+        <v>48</v>
+      </c>
+      <c r="G273">
+        <v>95</v>
+      </c>
+      <c r="H273">
+        <v>106.02</v>
+      </c>
+      <c r="I273" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>2023</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" t="s">
+        <v>22</v>
+      </c>
+      <c r="E274" t="s">
+        <v>43</v>
+      </c>
+      <c r="F274" t="s">
+        <v>48</v>
+      </c>
+      <c r="G274">
+        <v>91</v>
+      </c>
+      <c r="H274">
+        <v>96.28</v>
+      </c>
+      <c r="I274" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>2023</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" t="s">
+        <v>22</v>
+      </c>
+      <c r="E275" t="s">
+        <v>44</v>
+      </c>
+      <c r="F275" t="s">
+        <v>48</v>
+      </c>
+      <c r="G275">
+        <v>101</v>
+      </c>
+      <c r="H275">
+        <v>87.97</v>
+      </c>
+      <c r="I275" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>2023</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>22</v>
+      </c>
+      <c r="E276" t="s">
+        <v>45</v>
+      </c>
+      <c r="F276" t="s">
+        <v>48</v>
+      </c>
+      <c r="G276">
+        <v>93</v>
+      </c>
+      <c r="H276">
+        <v>94.86</v>
+      </c>
+      <c r="I276" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>2023</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>22</v>
+      </c>
+      <c r="E277" t="s">
+        <v>46</v>
+      </c>
+      <c r="F277" t="s">
+        <v>48</v>
+      </c>
+      <c r="G277">
+        <v>89</v>
+      </c>
+      <c r="H277">
+        <v>96.21</v>
+      </c>
+      <c r="I277" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>2023</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>23</v>
+      </c>
+      <c r="E278" t="s">
+        <v>40</v>
+      </c>
+      <c r="F278" t="s">
+        <v>48</v>
+      </c>
+      <c r="G278">
+        <v>93</v>
+      </c>
+      <c r="H278">
+        <v>87.23</v>
+      </c>
+      <c r="I278" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>2023</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" t="s">
+        <v>41</v>
+      </c>
+      <c r="F279" t="s">
+        <v>48</v>
+      </c>
+      <c r="G279">
+        <v>85</v>
+      </c>
+      <c r="H279">
+        <v>88.91</v>
+      </c>
+      <c r="I279" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>2023</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s">
+        <v>23</v>
+      </c>
+      <c r="E280" t="s">
+        <v>42</v>
+      </c>
+      <c r="F280" t="s">
+        <v>48</v>
+      </c>
+      <c r="G280">
+        <v>84</v>
+      </c>
+      <c r="H280">
+        <v>93.74</v>
+      </c>
+      <c r="I280" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>2023</v>
+      </c>
+      <c r="B281" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281" t="s">
+        <v>43</v>
+      </c>
+      <c r="F281" t="s">
+        <v>48</v>
+      </c>
+      <c r="G281">
+        <v>91</v>
+      </c>
+      <c r="H281">
+        <v>96.28</v>
+      </c>
+      <c r="I281" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>2023</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" t="s">
+        <v>23</v>
+      </c>
+      <c r="E282" t="s">
+        <v>44</v>
+      </c>
+      <c r="F282" t="s">
+        <v>48</v>
+      </c>
+      <c r="G282">
+        <v>100</v>
+      </c>
+      <c r="H282">
+        <v>87.1</v>
+      </c>
+      <c r="I282" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>2023</v>
+      </c>
+      <c r="B283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" t="s">
+        <v>23</v>
+      </c>
+      <c r="E283" t="s">
+        <v>45</v>
+      </c>
+      <c r="F283" t="s">
+        <v>48</v>
+      </c>
+      <c r="G283">
+        <v>96</v>
+      </c>
+      <c r="H283">
+        <v>97.92</v>
+      </c>
+      <c r="I283" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>2023</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" t="s">
+        <v>23</v>
+      </c>
+      <c r="E284" t="s">
+        <v>46</v>
+      </c>
+      <c r="F284" t="s">
+        <v>48</v>
+      </c>
+      <c r="G284">
+        <v>100</v>
+      </c>
+      <c r="H284">
+        <v>108.1</v>
+      </c>
+      <c r="I284" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>2023</v>
+      </c>
+      <c r="B285" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" t="s">
+        <v>24</v>
+      </c>
+      <c r="E285" t="s">
+        <v>40</v>
+      </c>
+      <c r="F285" t="s">
+        <v>48</v>
+      </c>
+      <c r="G285">
+        <v>78</v>
+      </c>
+      <c r="H285">
+        <v>73.16</v>
+      </c>
+      <c r="I285" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>2023</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" t="s">
+        <v>24</v>
+      </c>
+      <c r="E286" t="s">
+        <v>41</v>
+      </c>
+      <c r="F286" t="s">
+        <v>48</v>
+      </c>
+      <c r="G286">
+        <v>76</v>
+      </c>
+      <c r="H286">
+        <v>79.5</v>
+      </c>
+      <c r="I286" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>2023</v>
+      </c>
+      <c r="B287" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" t="s">
+        <v>24</v>
+      </c>
+      <c r="E287" t="s">
+        <v>42</v>
+      </c>
+      <c r="F287" t="s">
+        <v>48</v>
+      </c>
+      <c r="G287">
+        <v>77</v>
+      </c>
+      <c r="H287">
+        <v>85.93</v>
+      </c>
+      <c r="I287" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>2023</v>
+      </c>
+      <c r="B288" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" t="s">
+        <v>24</v>
+      </c>
+      <c r="E288" t="s">
+        <v>43</v>
+      </c>
+      <c r="F288" t="s">
+        <v>48</v>
+      </c>
+      <c r="G288">
+        <v>90</v>
+      </c>
+      <c r="H288">
+        <v>95.22</v>
+      </c>
+      <c r="I288" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>2023</v>
+      </c>
+      <c r="B289" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>24</v>
+      </c>
+      <c r="E289" t="s">
+        <v>44</v>
+      </c>
+      <c r="F289" t="s">
+        <v>48</v>
+      </c>
+      <c r="G289">
+        <v>90</v>
+      </c>
+      <c r="H289">
+        <v>78.39</v>
+      </c>
+      <c r="I289" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>2023</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" t="s">
+        <v>24</v>
+      </c>
+      <c r="E290" t="s">
+        <v>45</v>
+      </c>
+      <c r="F290" t="s">
+        <v>48</v>
+      </c>
+      <c r="G290">
+        <v>95</v>
+      </c>
+      <c r="H290">
+        <v>96.9</v>
+      </c>
+      <c r="I290" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>2023</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" t="s">
+        <v>24</v>
+      </c>
+      <c r="E291" t="s">
+        <v>46</v>
+      </c>
+      <c r="F291" t="s">
+        <v>48</v>
+      </c>
+      <c r="G291">
+        <v>97</v>
+      </c>
+      <c r="H291">
+        <v>104.86</v>
+      </c>
+      <c r="I291" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>2023</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" t="s">
+        <v>25</v>
+      </c>
+      <c r="E292" t="s">
+        <v>40</v>
+      </c>
+      <c r="F292" t="s">
+        <v>48</v>
+      </c>
+      <c r="G292">
+        <v>88</v>
+      </c>
+      <c r="H292">
+        <v>82.54</v>
+      </c>
+      <c r="I292" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>2023</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" t="s">
+        <v>25</v>
+      </c>
+      <c r="E293" t="s">
+        <v>41</v>
+      </c>
+      <c r="F293" t="s">
+        <v>48</v>
+      </c>
+      <c r="G293">
+        <v>94</v>
+      </c>
+      <c r="H293">
+        <v>98.32</v>
+      </c>
+      <c r="I293" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>2023</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" t="s">
+        <v>25</v>
+      </c>
+      <c r="E294" t="s">
+        <v>42</v>
+      </c>
+      <c r="F294" t="s">
+        <v>48</v>
+      </c>
+      <c r="G294">
+        <v>93</v>
+      </c>
+      <c r="H294">
+        <v>103.79</v>
+      </c>
+      <c r="I294" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>2023</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" t="s">
+        <v>25</v>
+      </c>
+      <c r="E295" t="s">
+        <v>43</v>
+      </c>
+      <c r="F295" t="s">
+        <v>48</v>
+      </c>
+      <c r="G295">
+        <v>83</v>
+      </c>
+      <c r="H295">
+        <v>87.81</v>
+      </c>
+      <c r="I295" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>2023</v>
+      </c>
+      <c r="B296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296" t="s">
+        <v>25</v>
+      </c>
+      <c r="E296" t="s">
+        <v>44</v>
+      </c>
+      <c r="F296" t="s">
+        <v>48</v>
+      </c>
+      <c r="G296">
+        <v>81</v>
+      </c>
+      <c r="H296">
+        <v>70.55</v>
+      </c>
+      <c r="I296" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>2023</v>
+      </c>
+      <c r="B297" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" t="s">
+        <v>25</v>
+      </c>
+      <c r="E297" t="s">
+        <v>45</v>
+      </c>
+      <c r="F297" t="s">
+        <v>48</v>
+      </c>
+      <c r="G297">
+        <v>95</v>
+      </c>
+      <c r="H297">
+        <v>96.9</v>
+      </c>
+      <c r="I297" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>2023</v>
+      </c>
+      <c r="B298" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" t="s">
+        <v>25</v>
+      </c>
+      <c r="E298" t="s">
+        <v>46</v>
+      </c>
+      <c r="F298" t="s">
+        <v>48</v>
+      </c>
+      <c r="G298">
+        <v>96</v>
+      </c>
+      <c r="H298">
+        <v>103.78</v>
+      </c>
+      <c r="I298" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>2023</v>
+      </c>
+      <c r="B299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>26</v>
+      </c>
+      <c r="E299" t="s">
+        <v>40</v>
+      </c>
+      <c r="F299" t="s">
+        <v>48</v>
+      </c>
+      <c r="G299">
+        <v>101</v>
+      </c>
+      <c r="H299">
+        <v>94.74</v>
+      </c>
+      <c r="I299" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>2023</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" t="s">
+        <v>26</v>
+      </c>
+      <c r="E300" t="s">
+        <v>41</v>
+      </c>
+      <c r="F300" t="s">
+        <v>48</v>
+      </c>
+      <c r="G300">
+        <v>89</v>
+      </c>
+      <c r="H300">
+        <v>93.09</v>
+      </c>
+      <c r="I300" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>2023</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" t="s">
+        <v>26</v>
+      </c>
+      <c r="E301" t="s">
+        <v>42</v>
+      </c>
+      <c r="F301" t="s">
+        <v>48</v>
+      </c>
+      <c r="G301">
+        <v>90</v>
+      </c>
+      <c r="H301">
+        <v>100.44</v>
+      </c>
+      <c r="I301" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>2023</v>
+      </c>
+      <c r="B302" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" t="s">
+        <v>26</v>
+      </c>
+      <c r="E302" t="s">
+        <v>43</v>
+      </c>
+      <c r="F302" t="s">
+        <v>48</v>
+      </c>
+      <c r="G302">
+        <v>88</v>
+      </c>
+      <c r="H302">
+        <v>93.1</v>
+      </c>
+      <c r="I302" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>2023</v>
+      </c>
+      <c r="B303" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303" t="s">
+        <v>26</v>
+      </c>
+      <c r="E303" t="s">
+        <v>44</v>
+      </c>
+      <c r="F303" t="s">
+        <v>48</v>
+      </c>
+      <c r="G303">
+        <v>88</v>
+      </c>
+      <c r="H303">
+        <v>76.650000000000006</v>
+      </c>
+      <c r="I303" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>2023</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" t="s">
+        <v>26</v>
+      </c>
+      <c r="E304" t="s">
+        <v>45</v>
+      </c>
+      <c r="F304" t="s">
+        <v>48</v>
+      </c>
+      <c r="G304">
+        <v>92</v>
+      </c>
+      <c r="H304">
+        <v>93.84</v>
+      </c>
+      <c r="I304" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>2023</v>
+      </c>
+      <c r="B305" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305" t="s">
+        <v>26</v>
+      </c>
+      <c r="E305" t="s">
+        <v>46</v>
+      </c>
+      <c r="F305" t="s">
+        <v>48</v>
+      </c>
+      <c r="G305">
+        <v>93</v>
+      </c>
+      <c r="H305">
+        <v>100.53</v>
+      </c>
+      <c r="I305" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>2023</v>
+      </c>
+      <c r="B306" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" t="s">
+        <v>10</v>
+      </c>
+      <c r="D306" t="s">
+        <v>27</v>
+      </c>
+      <c r="E306" t="s">
+        <v>40</v>
+      </c>
+      <c r="F306" t="s">
+        <v>48</v>
+      </c>
+      <c r="G306">
+        <v>84</v>
+      </c>
+      <c r="H306">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="I306" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>2023</v>
+      </c>
+      <c r="B307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" t="s">
+        <v>27</v>
+      </c>
+      <c r="E307" t="s">
+        <v>41</v>
+      </c>
+      <c r="F307" t="s">
+        <v>48</v>
+      </c>
+      <c r="G307">
+        <v>80</v>
+      </c>
+      <c r="H307">
+        <v>83.68</v>
+      </c>
+      <c r="I307" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>2023</v>
+      </c>
+      <c r="B308" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" t="s">
+        <v>27</v>
+      </c>
+      <c r="E308" t="s">
+        <v>42</v>
+      </c>
+      <c r="F308" t="s">
+        <v>48</v>
+      </c>
+      <c r="G308">
+        <v>83</v>
+      </c>
+      <c r="H308">
+        <v>92.63</v>
+      </c>
+      <c r="I308" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>2023</v>
+      </c>
+      <c r="B309" t="s">
+        <v>9</v>
+      </c>
+      <c r="C309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" t="s">
+        <v>27</v>
+      </c>
+      <c r="E309" t="s">
+        <v>43</v>
+      </c>
+      <c r="F309" t="s">
+        <v>48</v>
+      </c>
+      <c r="G309">
+        <v>78</v>
+      </c>
+      <c r="H309">
+        <v>82.52</v>
+      </c>
+      <c r="I309" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>2023</v>
+      </c>
+      <c r="B310" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" t="s">
+        <v>27</v>
+      </c>
+      <c r="E310" t="s">
+        <v>44</v>
+      </c>
+      <c r="F310" t="s">
+        <v>48</v>
+      </c>
+      <c r="G310">
+        <v>84</v>
+      </c>
+      <c r="H310">
+        <v>73.16</v>
+      </c>
+      <c r="I310" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>2023</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" t="s">
+        <v>27</v>
+      </c>
+      <c r="E311" t="s">
+        <v>45</v>
+      </c>
+      <c r="F311" t="s">
+        <v>48</v>
+      </c>
+      <c r="G311">
+        <v>81</v>
+      </c>
+      <c r="H311">
+        <v>82.62</v>
+      </c>
+      <c r="I311" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>2023</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" t="s">
+        <v>27</v>
+      </c>
+      <c r="E312" t="s">
+        <v>46</v>
+      </c>
+      <c r="F312" t="s">
+        <v>48</v>
+      </c>
+      <c r="G312">
+        <v>90</v>
+      </c>
+      <c r="H312">
+        <v>97.29</v>
+      </c>
+      <c r="I312" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>2023</v>
+      </c>
+      <c r="B313" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313" t="s">
+        <v>28</v>
+      </c>
+      <c r="E313" t="s">
+        <v>40</v>
+      </c>
+      <c r="F313" t="s">
+        <v>48</v>
+      </c>
+      <c r="G313">
+        <v>104</v>
+      </c>
+      <c r="H313">
+        <v>97.55</v>
+      </c>
+      <c r="I313" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>2023</v>
+      </c>
+      <c r="B314" t="s">
+        <v>9</v>
+      </c>
+      <c r="C314" t="s">
+        <v>10</v>
+      </c>
+      <c r="D314" t="s">
+        <v>28</v>
+      </c>
+      <c r="E314" t="s">
+        <v>41</v>
+      </c>
+      <c r="F314" t="s">
+        <v>48</v>
+      </c>
+      <c r="G314">
+        <v>88</v>
+      </c>
+      <c r="H314">
+        <v>92.05</v>
+      </c>
+      <c r="I314" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>2023</v>
+      </c>
+      <c r="B315" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315" t="s">
+        <v>10</v>
+      </c>
+      <c r="D315" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" t="s">
+        <v>42</v>
+      </c>
+      <c r="F315" t="s">
+        <v>48</v>
+      </c>
+      <c r="G315">
+        <v>92</v>
+      </c>
+      <c r="H315">
+        <v>102.67</v>
+      </c>
+      <c r="I315" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>2023</v>
+      </c>
+      <c r="B316" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" t="s">
+        <v>10</v>
+      </c>
+      <c r="D316" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" t="s">
+        <v>43</v>
+      </c>
+      <c r="F316" t="s">
+        <v>48</v>
+      </c>
+      <c r="G316">
+        <v>91</v>
+      </c>
+      <c r="H316">
+        <v>96.28</v>
+      </c>
+      <c r="I316" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>2023</v>
+      </c>
+      <c r="B317" t="s">
+        <v>9</v>
+      </c>
+      <c r="C317" t="s">
+        <v>10</v>
+      </c>
+      <c r="D317" t="s">
+        <v>28</v>
+      </c>
+      <c r="E317" t="s">
+        <v>44</v>
+      </c>
+      <c r="F317" t="s">
+        <v>48</v>
+      </c>
+      <c r="G317">
+        <v>96</v>
+      </c>
+      <c r="H317">
+        <v>83.62</v>
+      </c>
+      <c r="I317" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>2023</v>
+      </c>
+      <c r="B318" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" t="s">
+        <v>28</v>
+      </c>
+      <c r="E318" t="s">
+        <v>45</v>
+      </c>
+      <c r="F318" t="s">
+        <v>48</v>
+      </c>
+      <c r="G318">
+        <v>97</v>
+      </c>
+      <c r="H318">
+        <v>98.94</v>
+      </c>
+      <c r="I318" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>2023</v>
+      </c>
+      <c r="B319" t="s">
+        <v>9</v>
+      </c>
+      <c r="C319" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" t="s">
+        <v>28</v>
+      </c>
+      <c r="E319" t="s">
+        <v>46</v>
+      </c>
+      <c r="F319" t="s">
+        <v>48</v>
+      </c>
+      <c r="G319">
+        <v>88</v>
+      </c>
+      <c r="H319">
+        <v>95.13</v>
+      </c>
+      <c r="I319" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>2023</v>
+      </c>
+      <c r="B320" t="s">
+        <v>9</v>
+      </c>
+      <c r="C320" t="s">
+        <v>10</v>
+      </c>
+      <c r="D320" t="s">
+        <v>29</v>
+      </c>
+      <c r="E320" t="s">
+        <v>40</v>
+      </c>
+      <c r="F320" t="s">
+        <v>48</v>
+      </c>
+      <c r="G320">
+        <v>102</v>
+      </c>
+      <c r="H320">
+        <v>95.68</v>
+      </c>
+      <c r="I320" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>2023</v>
+      </c>
+      <c r="B321" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321" t="s">
+        <v>10</v>
+      </c>
+      <c r="D321" t="s">
+        <v>29</v>
+      </c>
+      <c r="E321" t="s">
+        <v>41</v>
+      </c>
+      <c r="F321" t="s">
+        <v>48</v>
+      </c>
+      <c r="G321">
+        <v>90</v>
+      </c>
+      <c r="H321">
+        <v>94.14</v>
+      </c>
+      <c r="I321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>2023</v>
+      </c>
+      <c r="B322" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" t="s">
+        <v>29</v>
+      </c>
+      <c r="E322" t="s">
+        <v>42</v>
+      </c>
+      <c r="F322" t="s">
+        <v>48</v>
+      </c>
+      <c r="G322">
+        <v>85</v>
+      </c>
+      <c r="H322">
+        <v>94.86</v>
+      </c>
+      <c r="I322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>2023</v>
+      </c>
+      <c r="B323" t="s">
+        <v>9</v>
+      </c>
+      <c r="C323" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" t="s">
+        <v>29</v>
+      </c>
+      <c r="E323" t="s">
+        <v>43</v>
+      </c>
+      <c r="F323" t="s">
+        <v>48</v>
+      </c>
+      <c r="G323">
+        <v>84</v>
+      </c>
+      <c r="H323">
+        <v>88.87</v>
+      </c>
+      <c r="I323" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>2023</v>
+      </c>
+      <c r="B324" t="s">
+        <v>9</v>
+      </c>
+      <c r="C324" t="s">
+        <v>10</v>
+      </c>
+      <c r="D324" t="s">
+        <v>29</v>
+      </c>
+      <c r="E324" t="s">
+        <v>44</v>
+      </c>
+      <c r="F324" t="s">
+        <v>48</v>
+      </c>
+      <c r="G324">
+        <v>92</v>
+      </c>
+      <c r="H324">
+        <v>80.13</v>
+      </c>
+      <c r="I324" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>2023</v>
+      </c>
+      <c r="B325" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" t="s">
+        <v>10</v>
+      </c>
+      <c r="D325" t="s">
+        <v>29</v>
+      </c>
+      <c r="E325" t="s">
+        <v>45</v>
+      </c>
+      <c r="F325" t="s">
+        <v>48</v>
+      </c>
+      <c r="G325">
+        <v>96</v>
+      </c>
+      <c r="H325">
+        <v>97.92</v>
+      </c>
+      <c r="I325" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>2023</v>
+      </c>
+      <c r="B326" t="s">
+        <v>9</v>
+      </c>
+      <c r="C326" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" t="s">
+        <v>29</v>
+      </c>
+      <c r="E326" t="s">
+        <v>46</v>
+      </c>
+      <c r="F326" t="s">
+        <v>48</v>
+      </c>
+      <c r="G326">
+        <v>94</v>
+      </c>
+      <c r="H326">
+        <v>101.61</v>
+      </c>
+      <c r="I326" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>2023</v>
+      </c>
+      <c r="B327" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327" t="s">
+        <v>30</v>
+      </c>
+      <c r="E327" t="s">
+        <v>40</v>
+      </c>
+      <c r="F327" t="s">
+        <v>48</v>
+      </c>
+      <c r="G327">
+        <v>99</v>
+      </c>
+      <c r="H327">
+        <v>92.86</v>
+      </c>
+      <c r="I327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>2023</v>
+      </c>
+      <c r="B328" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" t="s">
+        <v>30</v>
+      </c>
+      <c r="E328" t="s">
+        <v>41</v>
+      </c>
+      <c r="F328" t="s">
+        <v>48</v>
+      </c>
+      <c r="G328">
+        <v>103</v>
+      </c>
+      <c r="H328">
+        <v>107.74</v>
+      </c>
+      <c r="I328" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>2023</v>
+      </c>
+      <c r="B329" t="s">
+        <v>9</v>
+      </c>
+      <c r="C329" t="s">
+        <v>10</v>
+      </c>
+      <c r="D329" t="s">
+        <v>30</v>
+      </c>
+      <c r="E329" t="s">
+        <v>42</v>
+      </c>
+      <c r="F329" t="s">
+        <v>48</v>
+      </c>
+      <c r="G329">
+        <v>83</v>
+      </c>
+      <c r="H329">
+        <v>92.63</v>
+      </c>
+      <c r="I329" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>2023</v>
+      </c>
+      <c r="B330" t="s">
+        <v>9</v>
+      </c>
+      <c r="C330" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" t="s">
+        <v>30</v>
+      </c>
+      <c r="E330" t="s">
+        <v>43</v>
+      </c>
+      <c r="F330" t="s">
+        <v>48</v>
+      </c>
+      <c r="G330">
+        <v>87</v>
+      </c>
+      <c r="H330">
+        <v>92.05</v>
+      </c>
+      <c r="I330" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>2023</v>
+      </c>
+      <c r="B331" t="s">
+        <v>9</v>
+      </c>
+      <c r="C331" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" t="s">
+        <v>30</v>
+      </c>
+      <c r="E331" t="s">
+        <v>44</v>
+      </c>
+      <c r="F331" t="s">
+        <v>48</v>
+      </c>
+      <c r="G331">
+        <v>98</v>
+      </c>
+      <c r="H331">
+        <v>85.36</v>
+      </c>
+      <c r="I331" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>2023</v>
+      </c>
+      <c r="B332" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" t="s">
+        <v>10</v>
+      </c>
+      <c r="D332" t="s">
+        <v>30</v>
+      </c>
+      <c r="E332" t="s">
+        <v>45</v>
+      </c>
+      <c r="F332" t="s">
+        <v>48</v>
+      </c>
+      <c r="G332">
+        <v>97</v>
+      </c>
+      <c r="H332">
+        <v>98.94</v>
+      </c>
+      <c r="I332" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>2023</v>
+      </c>
+      <c r="B333" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333" t="s">
+        <v>10</v>
+      </c>
+      <c r="D333" t="s">
+        <v>30</v>
+      </c>
+      <c r="E333" t="s">
+        <v>46</v>
+      </c>
+      <c r="F333" t="s">
+        <v>48</v>
+      </c>
+      <c r="G333">
+        <v>94</v>
+      </c>
+      <c r="H333">
+        <v>101.61</v>
+      </c>
+      <c r="I333" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>2023</v>
+      </c>
+      <c r="B334" t="s">
+        <v>9</v>
+      </c>
+      <c r="C334" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" t="s">
+        <v>31</v>
+      </c>
+      <c r="E334" t="s">
+        <v>40</v>
+      </c>
+      <c r="F334" t="s">
+        <v>48</v>
+      </c>
+      <c r="G334">
+        <v>92</v>
+      </c>
+      <c r="H334">
+        <v>86.3</v>
+      </c>
+      <c r="I334" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>2023</v>
+      </c>
+      <c r="B335" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335" t="s">
+        <v>31</v>
+      </c>
+      <c r="E335" t="s">
+        <v>41</v>
+      </c>
+      <c r="F335" t="s">
+        <v>48</v>
+      </c>
+      <c r="G335">
+        <v>93</v>
+      </c>
+      <c r="H335">
+        <v>97.28</v>
+      </c>
+      <c r="I335" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>2023</v>
+      </c>
+      <c r="B336" t="s">
+        <v>9</v>
+      </c>
+      <c r="C336" t="s">
+        <v>10</v>
+      </c>
+      <c r="D336" t="s">
+        <v>31</v>
+      </c>
+      <c r="E336" t="s">
+        <v>42</v>
+      </c>
+      <c r="F336" t="s">
+        <v>48</v>
+      </c>
+      <c r="G336">
+        <v>92</v>
+      </c>
+      <c r="H336">
+        <v>102.67</v>
+      </c>
+      <c r="I336" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>2023</v>
+      </c>
+      <c r="B337" t="s">
+        <v>9</v>
+      </c>
+      <c r="C337" t="s">
+        <v>10</v>
+      </c>
+      <c r="D337" t="s">
+        <v>31</v>
+      </c>
+      <c r="E337" t="s">
+        <v>43</v>
+      </c>
+      <c r="F337" t="s">
+        <v>48</v>
+      </c>
+      <c r="G337">
+        <v>91</v>
+      </c>
+      <c r="H337">
+        <v>96.28</v>
+      </c>
+      <c r="I337" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>2023</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338" t="s">
+        <v>10</v>
+      </c>
+      <c r="D338" t="s">
+        <v>31</v>
+      </c>
+      <c r="E338" t="s">
+        <v>44</v>
+      </c>
+      <c r="F338" t="s">
+        <v>48</v>
+      </c>
+      <c r="G338">
+        <v>97</v>
+      </c>
+      <c r="H338">
+        <v>84.49</v>
+      </c>
+      <c r="I338" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>2023</v>
+      </c>
+      <c r="B339" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339" t="s">
+        <v>31</v>
+      </c>
+      <c r="E339" t="s">
+        <v>45</v>
+      </c>
+      <c r="F339" t="s">
+        <v>48</v>
+      </c>
+      <c r="G339">
+        <v>105</v>
+      </c>
+      <c r="H339">
+        <v>107.1</v>
+      </c>
+      <c r="I339" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>2023</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340" t="s">
+        <v>31</v>
+      </c>
+      <c r="E340" t="s">
+        <v>46</v>
+      </c>
+      <c r="F340" t="s">
+        <v>48</v>
+      </c>
+      <c r="G340">
+        <v>98</v>
+      </c>
+      <c r="H340">
+        <v>105.94</v>
+      </c>
+      <c r="I340" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>2023</v>
+      </c>
+      <c r="B341" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341" t="s">
+        <v>10</v>
+      </c>
+      <c r="D341" t="s">
+        <v>32</v>
+      </c>
+      <c r="E341" t="s">
+        <v>40</v>
+      </c>
+      <c r="F341" t="s">
+        <v>48</v>
+      </c>
+      <c r="G341">
+        <v>85</v>
+      </c>
+      <c r="H341">
+        <v>79.73</v>
+      </c>
+      <c r="I341" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>2023</v>
+      </c>
+      <c r="B342" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" t="s">
+        <v>10</v>
+      </c>
+      <c r="D342" t="s">
+        <v>32</v>
+      </c>
+      <c r="E342" t="s">
+        <v>41</v>
+      </c>
+      <c r="F342" t="s">
+        <v>48</v>
+      </c>
+      <c r="G342">
+        <v>85</v>
+      </c>
+      <c r="H342">
+        <v>88.91</v>
+      </c>
+      <c r="I342" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>2023</v>
+      </c>
+      <c r="B343" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" t="s">
+        <v>32</v>
+      </c>
+      <c r="E343" t="s">
+        <v>42</v>
+      </c>
+      <c r="F343" t="s">
+        <v>48</v>
+      </c>
+      <c r="G343">
+        <v>89</v>
+      </c>
+      <c r="H343">
+        <v>99.32</v>
+      </c>
+      <c r="I343" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>2023</v>
+      </c>
+      <c r="B344" t="s">
+        <v>9</v>
+      </c>
+      <c r="C344" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344" t="s">
+        <v>32</v>
+      </c>
+      <c r="E344" t="s">
+        <v>43</v>
+      </c>
+      <c r="F344" t="s">
+        <v>48</v>
+      </c>
+      <c r="G344">
+        <v>96</v>
+      </c>
+      <c r="H344">
+        <v>101.57</v>
+      </c>
+      <c r="I344" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>2023</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" t="s">
+        <v>10</v>
+      </c>
+      <c r="D345" t="s">
+        <v>32</v>
+      </c>
+      <c r="E345" t="s">
+        <v>44</v>
+      </c>
+      <c r="F345" t="s">
+        <v>48</v>
+      </c>
+      <c r="G345">
+        <v>100</v>
+      </c>
+      <c r="H345">
+        <v>87.1</v>
+      </c>
+      <c r="I345" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>2023</v>
+      </c>
+      <c r="B346" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" t="s">
+        <v>10</v>
+      </c>
+      <c r="D346" t="s">
+        <v>32</v>
+      </c>
+      <c r="E346" t="s">
+        <v>45</v>
+      </c>
+      <c r="F346" t="s">
+        <v>48</v>
+      </c>
+      <c r="G346">
+        <v>103</v>
+      </c>
+      <c r="H346">
+        <v>105.06</v>
+      </c>
+      <c r="I346" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>2023</v>
+      </c>
+      <c r="B347" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347" t="s">
+        <v>10</v>
+      </c>
+      <c r="D347" t="s">
+        <v>32</v>
+      </c>
+      <c r="E347" t="s">
+        <v>46</v>
+      </c>
+      <c r="F347" t="s">
+        <v>48</v>
+      </c>
+      <c r="G347">
+        <v>100</v>
+      </c>
+      <c r="H347">
+        <v>108.1</v>
+      </c>
+      <c r="I347" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>2023</v>
+      </c>
+      <c r="B348" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348" t="s">
+        <v>10</v>
+      </c>
+      <c r="D348" t="s">
+        <v>33</v>
+      </c>
+      <c r="E348" t="s">
+        <v>40</v>
+      </c>
+      <c r="F348" t="s">
+        <v>48</v>
+      </c>
+      <c r="G348">
+        <v>93</v>
+      </c>
+      <c r="H348">
+        <v>87.23</v>
+      </c>
+      <c r="I348" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>2023</v>
+      </c>
+      <c r="B349" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349" t="s">
+        <v>10</v>
+      </c>
+      <c r="D349" t="s">
+        <v>33</v>
+      </c>
+      <c r="E349" t="s">
+        <v>41</v>
+      </c>
+      <c r="F349" t="s">
+        <v>48</v>
+      </c>
+      <c r="G349">
+        <v>95</v>
+      </c>
+      <c r="H349">
+        <v>99.37</v>
+      </c>
+      <c r="I349" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>2023</v>
+      </c>
+      <c r="B350" t="s">
+        <v>9</v>
+      </c>
+      <c r="C350" t="s">
+        <v>10</v>
+      </c>
+      <c r="D350" t="s">
+        <v>33</v>
+      </c>
+      <c r="E350" t="s">
+        <v>42</v>
+      </c>
+      <c r="F350" t="s">
+        <v>48</v>
+      </c>
+      <c r="G350">
+        <v>90</v>
+      </c>
+      <c r="H350">
+        <v>100.44</v>
+      </c>
+      <c r="I350" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>2023</v>
+      </c>
+      <c r="B351" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351" t="s">
+        <v>10</v>
+      </c>
+      <c r="D351" t="s">
+        <v>33</v>
+      </c>
+      <c r="E351" t="s">
+        <v>43</v>
+      </c>
+      <c r="F351" t="s">
+        <v>48</v>
+      </c>
+      <c r="G351">
+        <v>85</v>
+      </c>
+      <c r="H351">
+        <v>89.93</v>
+      </c>
+      <c r="I351" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>2023</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352" t="s">
+        <v>33</v>
+      </c>
+      <c r="E352" t="s">
+        <v>44</v>
+      </c>
+      <c r="F352" t="s">
+        <v>48</v>
+      </c>
+      <c r="G352">
+        <v>91</v>
+      </c>
+      <c r="H352">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="I352" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>2023</v>
+      </c>
+      <c r="B353" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353" t="s">
+        <v>10</v>
+      </c>
+      <c r="D353" t="s">
+        <v>33</v>
+      </c>
+      <c r="E353" t="s">
+        <v>45</v>
+      </c>
+      <c r="F353" t="s">
+        <v>48</v>
+      </c>
+      <c r="G353">
+        <v>101</v>
+      </c>
+      <c r="H353">
+        <v>103.02</v>
+      </c>
+      <c r="I353" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>2023</v>
+      </c>
+      <c r="B354" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" t="s">
+        <v>33</v>
+      </c>
+      <c r="E354" t="s">
+        <v>46</v>
+      </c>
+      <c r="F354" t="s">
+        <v>48</v>
+      </c>
+      <c r="G354">
+        <v>89</v>
+      </c>
+      <c r="H354">
+        <v>96.21</v>
+      </c>
+      <c r="I354" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>2023</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" t="s">
+        <v>10</v>
+      </c>
+      <c r="D355" t="s">
+        <v>34</v>
+      </c>
+      <c r="E355" t="s">
+        <v>40</v>
+      </c>
+      <c r="F355" t="s">
+        <v>48</v>
+      </c>
+      <c r="G355">
+        <v>102</v>
+      </c>
+      <c r="H355">
+        <v>95.68</v>
+      </c>
+      <c r="I355" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>2023</v>
+      </c>
+      <c r="B356" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356" t="s">
+        <v>10</v>
+      </c>
+      <c r="D356" t="s">
+        <v>34</v>
+      </c>
+      <c r="E356" t="s">
+        <v>41</v>
+      </c>
+      <c r="F356" t="s">
+        <v>48</v>
+      </c>
+      <c r="G356">
+        <v>92</v>
+      </c>
+      <c r="H356">
+        <v>96.23</v>
+      </c>
+      <c r="I356" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>2023</v>
+      </c>
+      <c r="B357" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357" t="s">
+        <v>10</v>
+      </c>
+      <c r="D357" t="s">
+        <v>34</v>
+      </c>
+      <c r="E357" t="s">
+        <v>42</v>
+      </c>
+      <c r="F357" t="s">
+        <v>48</v>
+      </c>
+      <c r="G357">
+        <v>93</v>
+      </c>
+      <c r="H357">
+        <v>103.79</v>
+      </c>
+      <c r="I357" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>2023</v>
+      </c>
+      <c r="B358" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358" t="s">
+        <v>34</v>
+      </c>
+      <c r="E358" t="s">
+        <v>43</v>
+      </c>
+      <c r="F358" t="s">
+        <v>48</v>
+      </c>
+      <c r="G358">
+        <v>90</v>
+      </c>
+      <c r="H358">
+        <v>95.22</v>
+      </c>
+      <c r="I358" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>2023</v>
+      </c>
+      <c r="B359" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359" t="s">
+        <v>10</v>
+      </c>
+      <c r="D359" t="s">
+        <v>34</v>
+      </c>
+      <c r="E359" t="s">
+        <v>44</v>
+      </c>
+      <c r="F359" t="s">
+        <v>48</v>
+      </c>
+      <c r="G359">
+        <v>96</v>
+      </c>
+      <c r="H359">
+        <v>83.62</v>
+      </c>
+      <c r="I359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>2023</v>
+      </c>
+      <c r="B360" t="s">
+        <v>9</v>
+      </c>
+      <c r="C360" t="s">
+        <v>10</v>
+      </c>
+      <c r="D360" t="s">
+        <v>34</v>
+      </c>
+      <c r="E360" t="s">
+        <v>45</v>
+      </c>
+      <c r="F360" t="s">
+        <v>48</v>
+      </c>
+      <c r="G360">
+        <v>98</v>
+      </c>
+      <c r="H360">
+        <v>99.96</v>
+      </c>
+      <c r="I360" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>2023</v>
+      </c>
+      <c r="B361" t="s">
+        <v>9</v>
+      </c>
+      <c r="C361" t="s">
+        <v>10</v>
+      </c>
+      <c r="D361" t="s">
+        <v>34</v>
+      </c>
+      <c r="E361" t="s">
+        <v>46</v>
+      </c>
+      <c r="F361" t="s">
+        <v>48</v>
+      </c>
+      <c r="G361">
+        <v>95</v>
+      </c>
+      <c r="H361">
+        <v>102.69</v>
+      </c>
+      <c r="I361" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>2023</v>
+      </c>
+      <c r="B362" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362" t="s">
+        <v>10</v>
+      </c>
+      <c r="D362" t="s">
+        <v>35</v>
+      </c>
+      <c r="E362" t="s">
+        <v>40</v>
+      </c>
+      <c r="F362" t="s">
+        <v>48</v>
+      </c>
+      <c r="G362">
+        <v>87</v>
+      </c>
+      <c r="H362">
+        <v>81.61</v>
+      </c>
+      <c r="I362" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>2023</v>
+      </c>
+      <c r="B363" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363" t="s">
+        <v>10</v>
+      </c>
+      <c r="D363" t="s">
+        <v>35</v>
+      </c>
+      <c r="E363" t="s">
+        <v>41</v>
+      </c>
+      <c r="F363" t="s">
+        <v>48</v>
+      </c>
+      <c r="G363">
+        <v>94</v>
+      </c>
+      <c r="H363">
+        <v>98.32</v>
+      </c>
+      <c r="I363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>2023</v>
+      </c>
+      <c r="B364" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364" t="s">
+        <v>10</v>
+      </c>
+      <c r="D364" t="s">
+        <v>35</v>
+      </c>
+      <c r="E364" t="s">
+        <v>42</v>
+      </c>
+      <c r="F364" t="s">
+        <v>48</v>
+      </c>
+      <c r="G364">
+        <v>93</v>
+      </c>
+      <c r="H364">
+        <v>103.79</v>
+      </c>
+      <c r="I364" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>2023</v>
+      </c>
+      <c r="B365" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365" t="s">
+        <v>10</v>
+      </c>
+      <c r="D365" t="s">
+        <v>35</v>
+      </c>
+      <c r="E365" t="s">
+        <v>43</v>
+      </c>
+      <c r="F365" t="s">
+        <v>48</v>
+      </c>
+      <c r="G365">
+        <v>98</v>
+      </c>
+      <c r="H365">
+        <v>103.68</v>
+      </c>
+      <c r="I365" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>2023</v>
+      </c>
+      <c r="B366" t="s">
+        <v>9</v>
+      </c>
+      <c r="C366" t="s">
+        <v>10</v>
+      </c>
+      <c r="D366" t="s">
+        <v>35</v>
+      </c>
+      <c r="E366" t="s">
+        <v>44</v>
+      </c>
+      <c r="F366" t="s">
+        <v>48</v>
+      </c>
+      <c r="G366">
+        <v>96</v>
+      </c>
+      <c r="H366">
+        <v>83.62</v>
+      </c>
+      <c r="I366" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>2023</v>
+      </c>
+      <c r="B367" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367" t="s">
+        <v>10</v>
+      </c>
+      <c r="D367" t="s">
+        <v>35</v>
+      </c>
+      <c r="E367" t="s">
+        <v>45</v>
+      </c>
+      <c r="F367" t="s">
+        <v>48</v>
+      </c>
+      <c r="G367">
+        <v>103</v>
+      </c>
+      <c r="H367">
+        <v>105.06</v>
+      </c>
+      <c r="I367" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>2023</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368" t="s">
+        <v>10</v>
+      </c>
+      <c r="D368" t="s">
+        <v>35</v>
+      </c>
+      <c r="E368" t="s">
+        <v>46</v>
+      </c>
+      <c r="F368" t="s">
+        <v>48</v>
+      </c>
+      <c r="G368">
+        <v>102</v>
+      </c>
+      <c r="H368">
+        <v>110.26</v>
+      </c>
+      <c r="I368" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>2023</v>
+      </c>
+      <c r="B369" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369" t="s">
+        <v>10</v>
+      </c>
+      <c r="D369" t="s">
+        <v>36</v>
+      </c>
+      <c r="E369" t="s">
+        <v>40</v>
+      </c>
+      <c r="F369" t="s">
+        <v>48</v>
+      </c>
+      <c r="G369">
+        <v>98</v>
+      </c>
+      <c r="H369">
+        <v>91.92</v>
+      </c>
+      <c r="I369" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>2023</v>
+      </c>
+      <c r="B370" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370" t="s">
+        <v>10</v>
+      </c>
+      <c r="D370" t="s">
+        <v>36</v>
+      </c>
+      <c r="E370" t="s">
+        <v>41</v>
+      </c>
+      <c r="F370" t="s">
+        <v>48</v>
+      </c>
+      <c r="G370">
+        <v>95</v>
+      </c>
+      <c r="H370">
+        <v>99.37</v>
+      </c>
+      <c r="I370" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>2023</v>
+      </c>
+      <c r="B371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s">
+        <v>10</v>
+      </c>
+      <c r="D371" t="s">
+        <v>36</v>
+      </c>
+      <c r="E371" t="s">
+        <v>42</v>
+      </c>
+      <c r="F371" t="s">
+        <v>48</v>
+      </c>
+      <c r="G371">
+        <v>92</v>
+      </c>
+      <c r="H371">
+        <v>102.67</v>
+      </c>
+      <c r="I371" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>2023</v>
+      </c>
+      <c r="B372" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372" t="s">
+        <v>36</v>
+      </c>
+      <c r="E372" t="s">
+        <v>43</v>
+      </c>
+      <c r="F372" t="s">
+        <v>48</v>
+      </c>
+      <c r="G372">
+        <v>92</v>
+      </c>
+      <c r="H372">
+        <v>97.34</v>
+      </c>
+      <c r="I372" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>2023</v>
+      </c>
+      <c r="B373" t="s">
+        <v>9</v>
+      </c>
+      <c r="C373" t="s">
+        <v>10</v>
+      </c>
+      <c r="D373" t="s">
+        <v>36</v>
+      </c>
+      <c r="E373" t="s">
+        <v>44</v>
+      </c>
+      <c r="F373" t="s">
+        <v>48</v>
+      </c>
+      <c r="G373">
+        <v>96</v>
+      </c>
+      <c r="H373">
+        <v>83.62</v>
+      </c>
+      <c r="I373" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>2023</v>
+      </c>
+      <c r="B374" t="s">
+        <v>9</v>
+      </c>
+      <c r="C374" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" t="s">
+        <v>36</v>
+      </c>
+      <c r="E374" t="s">
+        <v>45</v>
+      </c>
+      <c r="F374" t="s">
+        <v>48</v>
+      </c>
+      <c r="G374">
+        <v>107</v>
+      </c>
+      <c r="H374">
+        <v>109.14</v>
+      </c>
+      <c r="I374" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>2023</v>
+      </c>
+      <c r="B375" t="s">
+        <v>9</v>
+      </c>
+      <c r="C375" t="s">
+        <v>10</v>
+      </c>
+      <c r="D375" t="s">
+        <v>36</v>
+      </c>
+      <c r="E375" t="s">
+        <v>46</v>
+      </c>
+      <c r="F375" t="s">
+        <v>48</v>
+      </c>
+      <c r="G375">
+        <v>96</v>
+      </c>
+      <c r="H375">
+        <v>103.78</v>
+      </c>
+      <c r="I375" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>2023</v>
+      </c>
+      <c r="B376" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376" t="s">
+        <v>37</v>
+      </c>
+      <c r="E376" t="s">
+        <v>42</v>
+      </c>
+      <c r="F376" t="s">
+        <v>48</v>
+      </c>
+      <c r="G376">
+        <v>79</v>
+      </c>
+      <c r="H376">
+        <v>88.16</v>
+      </c>
+      <c r="I376" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>2023</v>
+      </c>
+      <c r="B377" t="s">
+        <v>9</v>
+      </c>
+      <c r="C377" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377" t="s">
+        <v>37</v>
+      </c>
+      <c r="E377" t="s">
+        <v>43</v>
+      </c>
+      <c r="F377" t="s">
+        <v>48</v>
+      </c>
+      <c r="G377">
+        <v>85</v>
+      </c>
+      <c r="H377">
+        <v>89.93</v>
+      </c>
+      <c r="I377" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>2023</v>
+      </c>
+      <c r="B378" t="s">
+        <v>9</v>
+      </c>
+      <c r="C378" t="s">
+        <v>10</v>
+      </c>
+      <c r="D378" t="s">
+        <v>37</v>
+      </c>
+      <c r="E378" t="s">
+        <v>44</v>
+      </c>
+      <c r="F378" t="s">
+        <v>48</v>
+      </c>
+      <c r="G378">
+        <v>88</v>
+      </c>
+      <c r="H378">
+        <v>76.650000000000006</v>
+      </c>
+      <c r="I378" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>2023</v>
+      </c>
+      <c r="B379" t="s">
+        <v>9</v>
+      </c>
+      <c r="C379" t="s">
+        <v>10</v>
+      </c>
+      <c r="D379" t="s">
+        <v>37</v>
+      </c>
+      <c r="E379" t="s">
+        <v>45</v>
+      </c>
+      <c r="F379" t="s">
+        <v>48</v>
+      </c>
+      <c r="G379">
+        <v>92</v>
+      </c>
+      <c r="H379">
+        <v>93.84</v>
+      </c>
+      <c r="I379" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>2023</v>
+      </c>
+      <c r="B380" t="s">
+        <v>9</v>
+      </c>
+      <c r="C380" t="s">
+        <v>10</v>
+      </c>
+      <c r="D380" t="s">
+        <v>37</v>
+      </c>
+      <c r="E380" t="s">
+        <v>46</v>
+      </c>
+      <c r="F380" t="s">
+        <v>48</v>
+      </c>
+      <c r="G380">
+        <v>82</v>
+      </c>
+      <c r="H380">
+        <v>88.64</v>
+      </c>
+      <c r="I380" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>2023</v>
+      </c>
+      <c r="B381" t="s">
+        <v>9</v>
+      </c>
+      <c r="C381" t="s">
+        <v>10</v>
+      </c>
+      <c r="D381" t="s">
+        <v>38</v>
+      </c>
+      <c r="E381" t="s">
+        <v>40</v>
+      </c>
+      <c r="F381" t="s">
+        <v>48</v>
+      </c>
+      <c r="G381">
+        <v>92</v>
+      </c>
+      <c r="H381">
+        <v>86.3</v>
+      </c>
+      <c r="I381" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>2023</v>
+      </c>
+      <c r="B382" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382" t="s">
+        <v>10</v>
+      </c>
+      <c r="D382" t="s">
+        <v>38</v>
+      </c>
+      <c r="E382" t="s">
+        <v>41</v>
+      </c>
+      <c r="F382" t="s">
+        <v>48</v>
+      </c>
+      <c r="G382">
+        <v>87</v>
+      </c>
+      <c r="H382">
+        <v>91</v>
+      </c>
+      <c r="I382" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>2023</v>
+      </c>
+      <c r="B383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C383" t="s">
+        <v>10</v>
+      </c>
+      <c r="D383" t="s">
+        <v>39</v>
+      </c>
+      <c r="E383" t="s">
+        <v>40</v>
+      </c>
+      <c r="F383" t="s">
+        <v>48</v>
+      </c>
+      <c r="G383">
+        <v>97</v>
+      </c>
+      <c r="H383">
+        <v>90.99</v>
+      </c>
+      <c r="I383" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>2023</v>
+      </c>
+      <c r="B384" t="s">
+        <v>9</v>
+      </c>
+      <c r="C384" t="s">
+        <v>10</v>
+      </c>
+      <c r="D384" t="s">
+        <v>39</v>
+      </c>
+      <c r="E384" t="s">
+        <v>41</v>
+      </c>
+      <c r="F384" t="s">
+        <v>48</v>
+      </c>
+      <c r="G384">
+        <v>91</v>
+      </c>
+      <c r="H384">
+        <v>95.19</v>
+      </c>
+      <c r="I384" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>2023</v>
+      </c>
+      <c r="B385" t="s">
+        <v>9</v>
+      </c>
+      <c r="C385" t="s">
+        <v>10</v>
+      </c>
+      <c r="D385" t="s">
+        <v>39</v>
+      </c>
+      <c r="E385" t="s">
+        <v>44</v>
+      </c>
+      <c r="F385" t="s">
+        <v>48</v>
+      </c>
+      <c r="G385">
+        <v>76</v>
+      </c>
+      <c r="H385">
+        <v>66.2</v>
+      </c>
+      <c r="I385" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I385" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="extensive"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/2023_ww_de_prt_lsv.xlsx
+++ b/output/2023_ww_de_prt_lsv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -139,10 +139,16 @@
     <t>NW / Herx- heim</t>
   </si>
   <si>
+    <t>KH / Wallertheim</t>
+  </si>
+  <si>
     <t>SIM / Kümbdchen</t>
   </si>
   <si>
-    <t>both</t>
+    <t>intensive</t>
+  </si>
+  <si>
+    <t>extensive</t>
   </si>
   <si>
     <t>Winterweizen_Spelzweizen_2023_Versuchsbericht.pdf</t>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,13 +561,13 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>75.7</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,16 +584,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>107.8</v>
+        <v>82.2</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -604,16 +610,16 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>91.59999999999999</v>
+        <v>107.8</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -630,16 +636,16 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>103.4</v>
+        <v>111.2</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -656,16 +662,16 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>80.59999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -679,19 +685,19 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>75.2</v>
+        <v>97.5</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -705,19 +711,19 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>104.1</v>
+        <v>103.4</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -731,19 +737,19 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>86.2</v>
+        <v>108.9</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -757,19 +763,19 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>98.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -783,19 +789,19 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>85.8</v>
+        <v>70.5</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -809,19 +815,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12">
-        <v>73.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -835,19 +841,19 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>93.7</v>
+        <v>87.5</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -861,19 +867,19 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>84.7</v>
+        <v>75.2</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -887,19 +893,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H15">
-        <v>95.7</v>
+        <v>80.3</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -913,19 +919,19 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>91.90000000000001</v>
+        <v>104.1</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -939,19 +945,19 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>77.09999999999999</v>
+        <v>106.5</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -965,19 +971,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18">
-        <v>99.5</v>
+        <v>86.2</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -991,19 +997,19 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>86.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1017,19 +1023,19 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>96.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1043,19 +1049,19 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H21">
-        <v>83.5</v>
+        <v>109.9</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1069,19 +1075,19 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22">
-        <v>79</v>
+        <v>72.5</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1095,19 +1101,19 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H23">
-        <v>101.3</v>
+        <v>72.3</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1121,19 +1127,19 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>83.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1147,19 +1153,19 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H25">
-        <v>98.8</v>
+        <v>91.3</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1173,19 +1179,19 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
-        <v>83.2</v>
+        <v>73.8</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1199,19 +1205,19 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H27">
-        <v>70.09999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1225,19 +1231,19 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28">
-        <v>100.8</v>
+        <v>93.7</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1251,19 +1257,19 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H29">
-        <v>87.8</v>
+        <v>108.5</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1277,19 +1283,19 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30">
-        <v>99.09999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1303,19 +1309,19 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1329,19 +1335,19 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H32">
-        <v>72.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1355,19 +1361,19 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H33">
-        <v>102.6</v>
+        <v>111.7</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1381,19 +1387,19 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>80.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1407,19 +1413,19 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H35">
-        <v>91.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1433,19 +1439,19 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>83.90000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1459,19 +1465,19 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H37">
-        <v>70.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1485,19 +1491,19 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>102.4</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1511,19 +1517,19 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H39">
-        <v>80</v>
+        <v>75.7</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,19 +1543,19 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H40">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,19 +1569,19 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>77.5</v>
+        <v>100.6</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,19 +1595,19 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H42">
-        <v>76</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,19 +1621,19 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>99.8</v>
+        <v>87.7</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,19 +1647,19 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>82.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,19 +1673,19 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>88.40000000000001</v>
+        <v>105.6</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,19 +1699,19 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>83.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1719,19 +1725,19 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H47">
-        <v>72.3</v>
+        <v>71.5</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,19 +1751,19 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>101.3</v>
+        <v>83.5</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,19 +1777,19 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H49">
-        <v>83.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1797,19 +1803,19 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H50">
-        <v>93.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1823,19 +1829,19 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1849,19 +1855,19 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H52">
-        <v>74.3</v>
+        <v>101.3</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1875,19 +1881,19 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H53">
-        <v>99.2</v>
+        <v>109.5</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1901,19 +1907,19 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
         <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>81.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1927,19 +1933,19 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H55">
-        <v>93.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -1953,19 +1959,19 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
-        <v>77.3</v>
+        <v>98.8</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1979,19 +1985,19 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H57">
-        <v>72.40000000000001</v>
+        <v>110.9</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2005,19 +2011,19 @@
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>92.90000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2031,19 +2037,19 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H59">
-        <v>77.90000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2057,19 +2063,19 @@
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>94.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="I60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2083,19 +2089,19 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H61">
-        <v>79.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2109,19 +2115,19 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
         <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62">
-        <v>71.8</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2135,19 +2141,19 @@
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>95.7</v>
+        <v>70.2</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2161,19 +2167,19 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H64">
-        <v>82.09999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2187,19 +2193,19 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>95.09999999999999</v>
+        <v>104.1</v>
       </c>
       <c r="I65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2213,19 +2219,19 @@
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H66">
-        <v>73.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2239,19 +2245,19 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H67">
-        <v>74.3</v>
+        <v>88.2</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2265,19 +2271,19 @@
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H68">
-        <v>90.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2291,19 +2297,19 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H69">
-        <v>80.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2317,19 +2323,19 @@
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H70">
-        <v>92.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2343,19 +2349,19 @@
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
         <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H71">
-        <v>72.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2369,19 +2375,19 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2395,19 +2401,19 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H73">
-        <v>90.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2421,19 +2427,19 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H74">
-        <v>75.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2447,19 +2453,19 @@
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H75">
-        <v>93.7</v>
+        <v>76.3</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2473,19 +2479,19 @@
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H76">
-        <v>75.09999999999999</v>
+        <v>102.6</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2499,19 +2505,19 @@
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>66.8</v>
+        <v>105.1</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2525,19 +2531,19 @@
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H78">
-        <v>90.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2551,19 +2557,19 @@
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
         <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>78.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2577,19 +2583,19 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
         <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H80">
-        <v>95.09999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2603,19 +2609,19 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H81">
-        <v>79.8</v>
+        <v>104.7</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2629,19 +2635,19 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H82">
-        <v>75.5</v>
+        <v>73.8</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2655,19 +2661,19 @@
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>96.3</v>
+        <v>66.7</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2681,19 +2687,19 @@
         <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84">
-        <v>78.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2707,19 +2713,19 @@
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H85">
-        <v>84.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2733,19 +2739,19 @@
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>76.59999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2759,19 +2765,19 @@
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H87">
-        <v>75.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2785,19 +2791,19 @@
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>96.5</v>
+        <v>102.4</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2811,19 +2817,19 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H89">
-        <v>75.59999999999999</v>
+        <v>106.3</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2837,19 +2843,19 @@
         <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H90">
-        <v>82.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -2863,19 +2869,19 @@
         <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H91">
-        <v>81</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -2889,19 +2895,19 @@
         <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H92">
-        <v>70</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -2915,19 +2921,19 @@
         <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>92.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -2941,19 +2947,19 @@
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H94">
-        <v>79</v>
+        <v>74.8</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -2967,19 +2973,19 @@
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H95">
-        <v>90.7</v>
+        <v>63.5</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -2993,19 +2999,19 @@
         <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H96">
-        <v>75.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3019,19 +3025,19 @@
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H97">
-        <v>73.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3045,19 +3051,19 @@
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>88.40000000000001</v>
+        <v>76</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3071,19 +3077,19 @@
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H99">
-        <v>75.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3097,19 +3103,19 @@
         <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H100">
-        <v>87.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3123,19 +3129,19 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H101">
-        <v>77.7</v>
+        <v>105</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3149,19 +3155,19 @@
         <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>66.59999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3175,19 +3181,19 @@
         <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H103">
-        <v>89.2</v>
+        <v>89.5</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3201,19 +3207,19 @@
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H104">
-        <v>72</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3227,19 +3233,19 @@
         <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E105" t="s">
         <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H105">
-        <v>91.90000000000001</v>
+        <v>104.4</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3253,19 +3259,19 @@
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
         <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H106">
-        <v>76.59999999999999</v>
+        <v>74</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3279,19 +3285,19 @@
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>69.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3305,19 +3311,19 @@
         <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H108">
-        <v>92</v>
+        <v>83.5</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3331,19 +3337,19 @@
         <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H109">
-        <v>73.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3357,19 +3363,19 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H110">
-        <v>84.59999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3383,19 +3389,19 @@
         <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H111">
-        <v>78.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3409,19 +3415,19 @@
         <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>59.6</v>
+        <v>101.3</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3435,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H113">
-        <v>85.7</v>
+        <v>100.7</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3461,19 +3467,19 @@
         <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E114" t="s">
         <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H114">
-        <v>70.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3487,19 +3493,19 @@
         <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>97.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3513,19 +3519,19 @@
         <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116">
-        <v>68.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3539,19 +3545,19 @@
         <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H117">
-        <v>70.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3565,19 +3571,19 @@
         <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H118">
-        <v>92.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3591,19 +3597,19 @@
         <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H119">
-        <v>70.2</v>
+        <v>76.3</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3617,19 +3623,19 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H120">
-        <v>80.40000000000001</v>
+        <v>81</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3643,19 +3649,19 @@
         <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H121">
-        <v>74.2</v>
+        <v>85.2</v>
       </c>
       <c r="I121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3669,19 +3675,19 @@
         <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E122" t="s">
         <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H122">
-        <v>66.3</v>
+        <v>74.3</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3695,19 +3701,19 @@
         <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H123">
-        <v>84.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3721,19 +3727,19 @@
         <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>76.7</v>
+        <v>99.2</v>
       </c>
       <c r="I124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -3747,19 +3753,19 @@
         <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>84.3</v>
+        <v>101.8</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -3773,19 +3779,19 @@
         <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>74.09999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="I126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -3799,19 +3805,19 @@
         <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H127">
-        <v>66</v>
+        <v>84.3</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -3825,19 +3831,19 @@
         <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H128">
-        <v>73.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -3851,19 +3857,19 @@
         <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H129">
-        <v>66.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -3877,19 +3883,19 @@
         <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H130">
-        <v>60.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -3903,19 +3909,4751 @@
         <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E131" t="s">
         <v>41</v>
       </c>
       <c r="F131" t="s">
+        <v>44</v>
+      </c>
+      <c r="H131">
+        <v>64.2</v>
+      </c>
+      <c r="I131" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>2023</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" t="s">
         <v>42</v>
       </c>
-      <c r="H131">
+      <c r="F132" t="s">
+        <v>43</v>
+      </c>
+      <c r="H132">
+        <v>77.3</v>
+      </c>
+      <c r="I132" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>2023</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" t="s">
+        <v>44</v>
+      </c>
+      <c r="H133">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="I133" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>2023</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" t="s">
+        <v>43</v>
+      </c>
+      <c r="H134">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="I134" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>2023</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" t="s">
+        <v>44</v>
+      </c>
+      <c r="H135">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="I135" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>2023</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" t="s">
+        <v>43</v>
+      </c>
+      <c r="H136">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="I136" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>2023</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s">
+        <v>44</v>
+      </c>
+      <c r="H137">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="I137" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>2023</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" t="s">
+        <v>43</v>
+      </c>
+      <c r="H138">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="I138" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>2023</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" t="s">
+        <v>39</v>
+      </c>
+      <c r="F139" t="s">
+        <v>44</v>
+      </c>
+      <c r="H139">
+        <v>82.3</v>
+      </c>
+      <c r="I139" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>2023</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="H140">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="I140" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>2023</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" t="s">
+        <v>40</v>
+      </c>
+      <c r="F141" t="s">
+        <v>44</v>
+      </c>
+      <c r="H141">
+        <v>102.9</v>
+      </c>
+      <c r="I141" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>2023</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" t="s">
+        <v>43</v>
+      </c>
+      <c r="H142">
+        <v>73.5</v>
+      </c>
+      <c r="I142" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>2023</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" t="s">
+        <v>41</v>
+      </c>
+      <c r="F143" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143">
+        <v>72</v>
+      </c>
+      <c r="I143" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>2023</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" t="s">
+        <v>42</v>
+      </c>
+      <c r="F144" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="I144" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>2023</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" t="s">
+        <v>42</v>
+      </c>
+      <c r="F145" t="s">
+        <v>44</v>
+      </c>
+      <c r="H145">
+        <v>87.8</v>
+      </c>
+      <c r="I145" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>2023</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" t="s">
+        <v>37</v>
+      </c>
+      <c r="F146" t="s">
+        <v>43</v>
+      </c>
+      <c r="H146">
+        <v>71.8</v>
+      </c>
+      <c r="I146" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>2023</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" t="s">
+        <v>37</v>
+      </c>
+      <c r="F147" t="s">
+        <v>44</v>
+      </c>
+      <c r="H147">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="I147" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>2023</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>43</v>
+      </c>
+      <c r="H148">
+        <v>95.7</v>
+      </c>
+      <c r="I148" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>2023</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149">
+        <v>96.2</v>
+      </c>
+      <c r="I149" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>2023</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" t="s">
+        <v>39</v>
+      </c>
+      <c r="F150" t="s">
+        <v>43</v>
+      </c>
+      <c r="H150">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="I150" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>2023</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" t="s">
+        <v>39</v>
+      </c>
+      <c r="F151" t="s">
+        <v>44</v>
+      </c>
+      <c r="H151">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="I151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>2023</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" t="s">
+        <v>43</v>
+      </c>
+      <c r="H152">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="I152" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>2023</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" t="s">
+        <v>40</v>
+      </c>
+      <c r="F153" t="s">
+        <v>44</v>
+      </c>
+      <c r="H153">
+        <v>97.8</v>
+      </c>
+      <c r="I153" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>2023</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154" t="s">
+        <v>41</v>
+      </c>
+      <c r="F154" t="s">
+        <v>43</v>
+      </c>
+      <c r="H154">
+        <v>70.7</v>
+      </c>
+      <c r="I154" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>2023</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155" t="s">
+        <v>41</v>
+      </c>
+      <c r="F155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="I155" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>2023</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" t="s">
+        <v>42</v>
+      </c>
+      <c r="F156" t="s">
+        <v>43</v>
+      </c>
+      <c r="H156">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="I156" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>2023</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" t="s">
+        <v>42</v>
+      </c>
+      <c r="F157" t="s">
+        <v>44</v>
+      </c>
+      <c r="H157">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="I157" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>2023</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" t="s">
+        <v>43</v>
+      </c>
+      <c r="H158">
+        <v>74.3</v>
+      </c>
+      <c r="I158" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>2023</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" t="s">
+        <v>37</v>
+      </c>
+      <c r="F159" t="s">
+        <v>44</v>
+      </c>
+      <c r="H159">
+        <v>75</v>
+      </c>
+      <c r="I159" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>2023</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" t="s">
+        <v>43</v>
+      </c>
+      <c r="H160">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="I160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>2023</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" t="s">
+        <v>44</v>
+      </c>
+      <c r="H161">
+        <v>100.8</v>
+      </c>
+      <c r="I161" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>2023</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" t="s">
+        <v>43</v>
+      </c>
+      <c r="H162">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="I162" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>2023</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" t="s">
+        <v>39</v>
+      </c>
+      <c r="F163" t="s">
+        <v>44</v>
+      </c>
+      <c r="H163">
+        <v>86.5</v>
+      </c>
+      <c r="I163" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>2023</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" t="s">
+        <v>40</v>
+      </c>
+      <c r="F164" t="s">
+        <v>43</v>
+      </c>
+      <c r="H164">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="I164" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>2023</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" t="s">
+        <v>40</v>
+      </c>
+      <c r="F165" t="s">
+        <v>44</v>
+      </c>
+      <c r="H165">
+        <v>97.2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>2023</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" t="s">
+        <v>41</v>
+      </c>
+      <c r="F166" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166">
+        <v>73.2</v>
+      </c>
+      <c r="I166" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>2023</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" t="s">
+        <v>41</v>
+      </c>
+      <c r="F167" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="I167" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>2023</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" t="s">
+        <v>42</v>
+      </c>
+      <c r="F168" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168">
+        <v>72.3</v>
+      </c>
+      <c r="I168" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>2023</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" t="s">
+        <v>42</v>
+      </c>
+      <c r="F169" t="s">
+        <v>44</v>
+      </c>
+      <c r="H169">
+        <v>82.5</v>
+      </c>
+      <c r="I169" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>2023</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" t="s">
+        <v>37</v>
+      </c>
+      <c r="F170" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170">
+        <v>77</v>
+      </c>
+      <c r="I170" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>2023</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>37</v>
+      </c>
+      <c r="F171" t="s">
+        <v>44</v>
+      </c>
+      <c r="H171">
+        <v>75.8</v>
+      </c>
+      <c r="I171" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>2023</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" t="s">
+        <v>43</v>
+      </c>
+      <c r="H172">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="I172" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>2023</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>44</v>
+      </c>
+      <c r="H173">
+        <v>93</v>
+      </c>
+      <c r="I173" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>2023</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" t="s">
+        <v>39</v>
+      </c>
+      <c r="F174" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174">
+        <v>75.2</v>
+      </c>
+      <c r="I174" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>2023</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" t="s">
+        <v>39</v>
+      </c>
+      <c r="F175" t="s">
+        <v>44</v>
+      </c>
+      <c r="H175">
+        <v>76.7</v>
+      </c>
+      <c r="I175" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>2023</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" t="s">
+        <v>40</v>
+      </c>
+      <c r="F176" t="s">
+        <v>43</v>
+      </c>
+      <c r="H176">
+        <v>93.7</v>
+      </c>
+      <c r="I176" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>2023</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>25</v>
+      </c>
+      <c r="E177" t="s">
+        <v>40</v>
+      </c>
+      <c r="F177" t="s">
+        <v>44</v>
+      </c>
+      <c r="H177">
+        <v>103.7</v>
+      </c>
+      <c r="I177" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>2023</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178" t="s">
+        <v>41</v>
+      </c>
+      <c r="F178" t="s">
+        <v>43</v>
+      </c>
+      <c r="H178">
+        <v>71</v>
+      </c>
+      <c r="I178" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>2023</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" t="s">
+        <v>44</v>
+      </c>
+      <c r="H179">
+        <v>72</v>
+      </c>
+      <c r="I179" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>2023</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>25</v>
+      </c>
+      <c r="E180" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" t="s">
+        <v>43</v>
+      </c>
+      <c r="H180">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="I180" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>2023</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
+        <v>25</v>
+      </c>
+      <c r="E181" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" t="s">
+        <v>44</v>
+      </c>
+      <c r="H181">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="I181" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>2023</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" t="s">
+        <v>37</v>
+      </c>
+      <c r="F182" t="s">
+        <v>43</v>
+      </c>
+      <c r="H182">
+        <v>66.8</v>
+      </c>
+      <c r="I182" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>2023</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" t="s">
+        <v>37</v>
+      </c>
+      <c r="F183" t="s">
+        <v>44</v>
+      </c>
+      <c r="H183">
+        <v>71.7</v>
+      </c>
+      <c r="I183" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>2023</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>26</v>
+      </c>
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F184" t="s">
+        <v>43</v>
+      </c>
+      <c r="H184">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="I184" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>2023</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" t="s">
+        <v>44</v>
+      </c>
+      <c r="H185">
+        <v>94</v>
+      </c>
+      <c r="I185" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>2023</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F186" t="s">
+        <v>43</v>
+      </c>
+      <c r="H186">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="I186" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>2023</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" t="s">
+        <v>39</v>
+      </c>
+      <c r="F187" t="s">
+        <v>44</v>
+      </c>
+      <c r="H187">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="I187" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>2023</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" t="s">
+        <v>40</v>
+      </c>
+      <c r="F188" t="s">
+        <v>43</v>
+      </c>
+      <c r="H188">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="I188" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189">
+        <v>2023</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" t="s">
+        <v>40</v>
+      </c>
+      <c r="F189" t="s">
+        <v>44</v>
+      </c>
+      <c r="H189">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="I189" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190">
+        <v>2023</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" t="s">
+        <v>41</v>
+      </c>
+      <c r="F190" t="s">
+        <v>43</v>
+      </c>
+      <c r="H190">
+        <v>69.2</v>
+      </c>
+      <c r="I190" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191">
+        <v>2023</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>26</v>
+      </c>
+      <c r="E191" t="s">
+        <v>41</v>
+      </c>
+      <c r="F191" t="s">
+        <v>44</v>
+      </c>
+      <c r="H191">
+        <v>69.3</v>
+      </c>
+      <c r="I191" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192">
+        <v>2023</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" t="s">
+        <v>42</v>
+      </c>
+      <c r="F192" t="s">
+        <v>43</v>
+      </c>
+      <c r="H192">
+        <v>79.8</v>
+      </c>
+      <c r="I192" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193">
+        <v>2023</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" t="s">
+        <v>42</v>
+      </c>
+      <c r="F193" t="s">
+        <v>44</v>
+      </c>
+      <c r="H193">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="I193" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194">
+        <v>2023</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>27</v>
+      </c>
+      <c r="E194" t="s">
+        <v>37</v>
+      </c>
+      <c r="F194" t="s">
+        <v>43</v>
+      </c>
+      <c r="H194">
+        <v>75.5</v>
+      </c>
+      <c r="I194" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195">
+        <v>2023</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" t="s">
+        <v>37</v>
+      </c>
+      <c r="F195" t="s">
+        <v>44</v>
+      </c>
+      <c r="H195">
+        <v>75.3</v>
+      </c>
+      <c r="I195" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196">
+        <v>2023</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" t="s">
+        <v>38</v>
+      </c>
+      <c r="F196" t="s">
+        <v>43</v>
+      </c>
+      <c r="H196">
+        <v>96.3</v>
+      </c>
+      <c r="I196" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197">
+        <v>2023</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>27</v>
+      </c>
+      <c r="E197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" t="s">
+        <v>44</v>
+      </c>
+      <c r="H197">
+        <v>97</v>
+      </c>
+      <c r="I197" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198">
+        <v>2023</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>27</v>
+      </c>
+      <c r="E198" t="s">
+        <v>39</v>
+      </c>
+      <c r="F198" t="s">
+        <v>43</v>
+      </c>
+      <c r="H198">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="I198" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199">
+        <v>2023</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>27</v>
+      </c>
+      <c r="E199" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" t="s">
+        <v>44</v>
+      </c>
+      <c r="H199">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="I199" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200">
+        <v>2023</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>27</v>
+      </c>
+      <c r="E200" t="s">
+        <v>40</v>
+      </c>
+      <c r="F200" t="s">
+        <v>43</v>
+      </c>
+      <c r="H200">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="I200" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201">
+        <v>2023</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" t="s">
+        <v>27</v>
+      </c>
+      <c r="E201" t="s">
+        <v>40</v>
+      </c>
+      <c r="F201" t="s">
+        <v>44</v>
+      </c>
+      <c r="H201">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="I201" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202">
+        <v>2023</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" t="s">
+        <v>27</v>
+      </c>
+      <c r="E202" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202" t="s">
+        <v>43</v>
+      </c>
+      <c r="H202">
+        <v>67.5</v>
+      </c>
+      <c r="I202" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203">
+        <v>2023</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>27</v>
+      </c>
+      <c r="E203" t="s">
+        <v>41</v>
+      </c>
+      <c r="F203" t="s">
+        <v>44</v>
+      </c>
+      <c r="H203">
+        <v>65.7</v>
+      </c>
+      <c r="I203" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204">
+        <v>2023</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>27</v>
+      </c>
+      <c r="E204" t="s">
+        <v>42</v>
+      </c>
+      <c r="F204" t="s">
+        <v>43</v>
+      </c>
+      <c r="H204">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I204" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205">
+        <v>2023</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" t="s">
+        <v>27</v>
+      </c>
+      <c r="E205" t="s">
+        <v>42</v>
+      </c>
+      <c r="F205" t="s">
+        <v>44</v>
+      </c>
+      <c r="H205">
+        <v>84</v>
+      </c>
+      <c r="I205" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206">
+        <v>2023</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" t="s">
+        <v>37</v>
+      </c>
+      <c r="F206" t="s">
+        <v>43</v>
+      </c>
+      <c r="H206">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="I206" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207">
+        <v>2023</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" t="s">
+        <v>37</v>
+      </c>
+      <c r="F207" t="s">
+        <v>44</v>
+      </c>
+      <c r="H207">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="I207" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208">
+        <v>2023</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" t="s">
+        <v>38</v>
+      </c>
+      <c r="F208" t="s">
+        <v>43</v>
+      </c>
+      <c r="H208">
+        <v>96.5</v>
+      </c>
+      <c r="I208" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209">
+        <v>2023</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" t="s">
+        <v>38</v>
+      </c>
+      <c r="F209" t="s">
+        <v>44</v>
+      </c>
+      <c r="H209">
+        <v>110.1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210">
+        <v>2023</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" t="s">
+        <v>39</v>
+      </c>
+      <c r="F210" t="s">
+        <v>43</v>
+      </c>
+      <c r="H210">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="I210" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211">
+        <v>2023</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" t="s">
+        <v>39</v>
+      </c>
+      <c r="F211" t="s">
+        <v>44</v>
+      </c>
+      <c r="H211">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="I211" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212">
+        <v>2023</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" t="s">
+        <v>40</v>
+      </c>
+      <c r="F212" t="s">
+        <v>43</v>
+      </c>
+      <c r="H212">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="I212" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213">
+        <v>2023</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" t="s">
+        <v>40</v>
+      </c>
+      <c r="F213" t="s">
+        <v>44</v>
+      </c>
+      <c r="H213">
+        <v>96</v>
+      </c>
+      <c r="I213" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214">
+        <v>2023</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" t="s">
+        <v>41</v>
+      </c>
+      <c r="F214" t="s">
+        <v>43</v>
+      </c>
+      <c r="H214">
+        <v>63.8</v>
+      </c>
+      <c r="I214" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215">
+        <v>2023</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" t="s">
+        <v>41</v>
+      </c>
+      <c r="F215" t="s">
+        <v>44</v>
+      </c>
+      <c r="H215">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="I215" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216">
+        <v>2023</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" t="s">
+        <v>42</v>
+      </c>
+      <c r="F216" t="s">
+        <v>43</v>
+      </c>
+      <c r="H216">
+        <v>81</v>
+      </c>
+      <c r="I216" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217">
+        <v>2023</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" t="s">
+        <v>42</v>
+      </c>
+      <c r="F217" t="s">
+        <v>44</v>
+      </c>
+      <c r="H217">
+        <v>89.3</v>
+      </c>
+      <c r="I217" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218">
+        <v>2023</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>29</v>
+      </c>
+      <c r="E218" t="s">
+        <v>37</v>
+      </c>
+      <c r="F218" t="s">
+        <v>43</v>
+      </c>
+      <c r="H218">
+        <v>70</v>
+      </c>
+      <c r="I218" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219">
+        <v>2023</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>29</v>
+      </c>
+      <c r="E219" t="s">
+        <v>37</v>
+      </c>
+      <c r="F219" t="s">
+        <v>44</v>
+      </c>
+      <c r="H219">
+        <v>74.5</v>
+      </c>
+      <c r="I219" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220">
+        <v>2023</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>29</v>
+      </c>
+      <c r="E220" t="s">
+        <v>38</v>
+      </c>
+      <c r="F220" t="s">
+        <v>43</v>
+      </c>
+      <c r="H220">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="I220" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221">
+        <v>2023</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>29</v>
+      </c>
+      <c r="E221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" t="s">
+        <v>44</v>
+      </c>
+      <c r="H221">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="I221" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222">
+        <v>2023</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" t="s">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>39</v>
+      </c>
+      <c r="F222" t="s">
+        <v>43</v>
+      </c>
+      <c r="H222">
+        <v>79</v>
+      </c>
+      <c r="I222" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223">
+        <v>2023</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" t="s">
+        <v>29</v>
+      </c>
+      <c r="E223" t="s">
+        <v>39</v>
+      </c>
+      <c r="F223" t="s">
+        <v>44</v>
+      </c>
+      <c r="H223">
+        <v>83.2</v>
+      </c>
+      <c r="I223" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224">
+        <v>2023</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>29</v>
+      </c>
+      <c r="E224" t="s">
+        <v>40</v>
+      </c>
+      <c r="F224" t="s">
+        <v>43</v>
+      </c>
+      <c r="H224">
+        <v>90.7</v>
+      </c>
+      <c r="I224" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225">
+        <v>2023</v>
+      </c>
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" t="s">
+        <v>29</v>
+      </c>
+      <c r="E225" t="s">
+        <v>40</v>
+      </c>
+      <c r="F225" t="s">
+        <v>44</v>
+      </c>
+      <c r="H225">
+        <v>104.4</v>
+      </c>
+      <c r="I225" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226">
+        <v>2023</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>29</v>
+      </c>
+      <c r="E226" t="s">
+        <v>41</v>
+      </c>
+      <c r="F226" t="s">
+        <v>43</v>
+      </c>
+      <c r="H226">
+        <v>64.3</v>
+      </c>
+      <c r="I226" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227">
+        <v>2023</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" t="s">
+        <v>29</v>
+      </c>
+      <c r="E227" t="s">
+        <v>41</v>
+      </c>
+      <c r="F227" t="s">
+        <v>44</v>
+      </c>
+      <c r="H227">
+        <v>65.7</v>
+      </c>
+      <c r="I227" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228">
+        <v>2023</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" t="s">
+        <v>29</v>
+      </c>
+      <c r="E228" t="s">
+        <v>42</v>
+      </c>
+      <c r="F228" t="s">
+        <v>43</v>
+      </c>
+      <c r="H228">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="I228" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229">
+        <v>2023</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>29</v>
+      </c>
+      <c r="E229" t="s">
+        <v>42</v>
+      </c>
+      <c r="F229" t="s">
+        <v>44</v>
+      </c>
+      <c r="H229">
+        <v>80.5</v>
+      </c>
+      <c r="I229" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230">
+        <v>2023</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" t="s">
+        <v>30</v>
+      </c>
+      <c r="E230" t="s">
+        <v>37</v>
+      </c>
+      <c r="F230" t="s">
+        <v>43</v>
+      </c>
+      <c r="H230">
+        <v>73.8</v>
+      </c>
+      <c r="I230" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231">
+        <v>2023</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" t="s">
+        <v>30</v>
+      </c>
+      <c r="E231" t="s">
+        <v>37</v>
+      </c>
+      <c r="F231" t="s">
+        <v>44</v>
+      </c>
+      <c r="H231">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="I231" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232">
+        <v>2023</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" t="s">
+        <v>30</v>
+      </c>
+      <c r="E232" t="s">
+        <v>38</v>
+      </c>
+      <c r="F232" t="s">
+        <v>43</v>
+      </c>
+      <c r="H232">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="I232" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233">
+        <v>2023</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" t="s">
+        <v>30</v>
+      </c>
+      <c r="E233" t="s">
+        <v>38</v>
+      </c>
+      <c r="F233" t="s">
+        <v>44</v>
+      </c>
+      <c r="H233">
+        <v>100.6</v>
+      </c>
+      <c r="I233" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234">
+        <v>2023</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" t="s">
+        <v>30</v>
+      </c>
+      <c r="E234" t="s">
+        <v>39</v>
+      </c>
+      <c r="F234" t="s">
+        <v>43</v>
+      </c>
+      <c r="H234">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="I234" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235">
+        <v>2023</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" t="s">
+        <v>30</v>
+      </c>
+      <c r="E235" t="s">
+        <v>39</v>
+      </c>
+      <c r="F235" t="s">
+        <v>44</v>
+      </c>
+      <c r="H235">
+        <v>84.7</v>
+      </c>
+      <c r="I235" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236">
+        <v>2023</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" t="s">
+        <v>30</v>
+      </c>
+      <c r="E236" t="s">
+        <v>40</v>
+      </c>
+      <c r="F236" t="s">
+        <v>43</v>
+      </c>
+      <c r="H236">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="I236" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237">
+        <v>2023</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" t="s">
+        <v>30</v>
+      </c>
+      <c r="E237" t="s">
+        <v>40</v>
+      </c>
+      <c r="F237" t="s">
+        <v>44</v>
+      </c>
+      <c r="H237">
+        <v>96.8</v>
+      </c>
+      <c r="I237" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238">
+        <v>2023</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" t="s">
+        <v>30</v>
+      </c>
+      <c r="E238" t="s">
+        <v>41</v>
+      </c>
+      <c r="F238" t="s">
+        <v>43</v>
+      </c>
+      <c r="H238">
+        <v>62.4</v>
+      </c>
+      <c r="I238" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239">
+        <v>2023</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" t="s">
+        <v>30</v>
+      </c>
+      <c r="E239" t="s">
+        <v>41</v>
+      </c>
+      <c r="F239" t="s">
+        <v>44</v>
+      </c>
+      <c r="H239">
+        <v>62.4</v>
+      </c>
+      <c r="I239" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240">
+        <v>2023</v>
+      </c>
+      <c r="B240" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" t="s">
+        <v>30</v>
+      </c>
+      <c r="E240" t="s">
+        <v>42</v>
+      </c>
+      <c r="F240" t="s">
+        <v>43</v>
+      </c>
+      <c r="H240">
+        <v>77.7</v>
+      </c>
+      <c r="I240" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241">
+        <v>2023</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>30</v>
+      </c>
+      <c r="E241" t="s">
+        <v>42</v>
+      </c>
+      <c r="F241" t="s">
+        <v>44</v>
+      </c>
+      <c r="H241">
+        <v>86.2</v>
+      </c>
+      <c r="I241" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242">
+        <v>2023</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" t="s">
+        <v>31</v>
+      </c>
+      <c r="E242" t="s">
+        <v>37</v>
+      </c>
+      <c r="F242" t="s">
+        <v>43</v>
+      </c>
+      <c r="H242">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="I242" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243">
+        <v>2023</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" t="s">
+        <v>31</v>
+      </c>
+      <c r="E243" t="s">
+        <v>37</v>
+      </c>
+      <c r="F243" t="s">
+        <v>44</v>
+      </c>
+      <c r="H243">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="I243" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244">
+        <v>2023</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" t="s">
+        <v>31</v>
+      </c>
+      <c r="E244" t="s">
+        <v>38</v>
+      </c>
+      <c r="F244" t="s">
+        <v>43</v>
+      </c>
+      <c r="H244">
+        <v>89.2</v>
+      </c>
+      <c r="I244" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245">
+        <v>2023</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" t="s">
+        <v>31</v>
+      </c>
+      <c r="E245" t="s">
+        <v>38</v>
+      </c>
+      <c r="F245" t="s">
+        <v>44</v>
+      </c>
+      <c r="H245">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="I245" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246">
+        <v>2023</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" t="s">
+        <v>31</v>
+      </c>
+      <c r="E246" t="s">
+        <v>39</v>
+      </c>
+      <c r="F246" t="s">
+        <v>43</v>
+      </c>
+      <c r="H246">
+        <v>72</v>
+      </c>
+      <c r="I246" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247">
+        <v>2023</v>
+      </c>
+      <c r="B247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" t="s">
+        <v>31</v>
+      </c>
+      <c r="E247" t="s">
+        <v>39</v>
+      </c>
+      <c r="F247" t="s">
+        <v>44</v>
+      </c>
+      <c r="H247">
+        <v>77.5</v>
+      </c>
+      <c r="I247" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248">
+        <v>2023</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" t="s">
+        <v>31</v>
+      </c>
+      <c r="E248" t="s">
+        <v>40</v>
+      </c>
+      <c r="F248" t="s">
+        <v>43</v>
+      </c>
+      <c r="H248">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="I248" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249">
+        <v>2023</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" t="s">
+        <v>31</v>
+      </c>
+      <c r="E249" t="s">
+        <v>40</v>
+      </c>
+      <c r="F249" t="s">
+        <v>44</v>
+      </c>
+      <c r="H249">
+        <v>92.8</v>
+      </c>
+      <c r="I249" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250">
+        <v>2023</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" t="s">
+        <v>31</v>
+      </c>
+      <c r="E250" t="s">
+        <v>41</v>
+      </c>
+      <c r="F250" t="s">
+        <v>43</v>
+      </c>
+      <c r="H250">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="I250" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251">
+        <v>2023</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>31</v>
+      </c>
+      <c r="E251" t="s">
+        <v>41</v>
+      </c>
+      <c r="F251" t="s">
+        <v>44</v>
+      </c>
+      <c r="H251">
+        <v>64.2</v>
+      </c>
+      <c r="I251" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252">
+        <v>2023</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>31</v>
+      </c>
+      <c r="E252" t="s">
+        <v>42</v>
+      </c>
+      <c r="F252" t="s">
+        <v>43</v>
+      </c>
+      <c r="H252">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I252" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253">
+        <v>2023</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>31</v>
+      </c>
+      <c r="E253" t="s">
+        <v>42</v>
+      </c>
+      <c r="F253" t="s">
+        <v>44</v>
+      </c>
+      <c r="H253">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="I253" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254">
+        <v>2023</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>32</v>
+      </c>
+      <c r="E254" t="s">
+        <v>37</v>
+      </c>
+      <c r="F254" t="s">
+        <v>43</v>
+      </c>
+      <c r="H254">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="I254" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255">
+        <v>2023</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" t="s">
+        <v>32</v>
+      </c>
+      <c r="E255" t="s">
+        <v>37</v>
+      </c>
+      <c r="F255" t="s">
+        <v>44</v>
+      </c>
+      <c r="H255">
+        <v>72.2</v>
+      </c>
+      <c r="I255" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256">
+        <v>2023</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>32</v>
+      </c>
+      <c r="E256" t="s">
+        <v>38</v>
+      </c>
+      <c r="F256" t="s">
+        <v>43</v>
+      </c>
+      <c r="H256">
+        <v>92</v>
+      </c>
+      <c r="I256" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257">
+        <v>2023</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" t="s">
+        <v>32</v>
+      </c>
+      <c r="E257" t="s">
+        <v>38</v>
+      </c>
+      <c r="F257" t="s">
+        <v>44</v>
+      </c>
+      <c r="H257">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="I257" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258">
+        <v>2023</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" t="s">
+        <v>32</v>
+      </c>
+      <c r="E258" t="s">
+        <v>39</v>
+      </c>
+      <c r="F258" t="s">
+        <v>43</v>
+      </c>
+      <c r="H258">
+        <v>73.7</v>
+      </c>
+      <c r="I258" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259">
+        <v>2023</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" t="s">
+        <v>32</v>
+      </c>
+      <c r="E259" t="s">
+        <v>39</v>
+      </c>
+      <c r="F259" t="s">
+        <v>44</v>
+      </c>
+      <c r="H259">
+        <v>80.5</v>
+      </c>
+      <c r="I259" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260">
+        <v>2023</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>32</v>
+      </c>
+      <c r="E260" t="s">
+        <v>40</v>
+      </c>
+      <c r="F260" t="s">
+        <v>43</v>
+      </c>
+      <c r="H260">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="I260" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261">
+        <v>2023</v>
+      </c>
+      <c r="B261" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>32</v>
+      </c>
+      <c r="E261" t="s">
+        <v>40</v>
+      </c>
+      <c r="F261" t="s">
+        <v>44</v>
+      </c>
+      <c r="H261">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="I261" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262">
+        <v>2023</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" t="s">
+        <v>32</v>
+      </c>
+      <c r="E262" t="s">
+        <v>41</v>
+      </c>
+      <c r="F262" t="s">
+        <v>43</v>
+      </c>
+      <c r="H262">
+        <v>62.1</v>
+      </c>
+      <c r="I262" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263">
+        <v>2023</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" t="s">
+        <v>32</v>
+      </c>
+      <c r="E263" t="s">
+        <v>41</v>
+      </c>
+      <c r="F263" t="s">
+        <v>44</v>
+      </c>
+      <c r="H263">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="I263" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264">
+        <v>2023</v>
+      </c>
+      <c r="B264" t="s">
+        <v>9</v>
+      </c>
+      <c r="C264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" t="s">
+        <v>32</v>
+      </c>
+      <c r="E264" t="s">
+        <v>42</v>
+      </c>
+      <c r="F264" t="s">
+        <v>43</v>
+      </c>
+      <c r="H264">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="I264" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265">
+        <v>2023</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" t="s">
+        <v>32</v>
+      </c>
+      <c r="E265" t="s">
+        <v>42</v>
+      </c>
+      <c r="F265" t="s">
+        <v>44</v>
+      </c>
+      <c r="H265">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="I265" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266">
+        <v>2023</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" t="s">
+        <v>33</v>
+      </c>
+      <c r="E266" t="s">
+        <v>37</v>
+      </c>
+      <c r="F266" t="s">
+        <v>43</v>
+      </c>
+      <c r="H266">
+        <v>59.6</v>
+      </c>
+      <c r="I266" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267">
+        <v>2023</v>
+      </c>
+      <c r="B267" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" t="s">
+        <v>33</v>
+      </c>
+      <c r="E267" t="s">
+        <v>37</v>
+      </c>
+      <c r="F267" t="s">
+        <v>44</v>
+      </c>
+      <c r="H267">
+        <v>61.8</v>
+      </c>
+      <c r="I267" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268">
+        <v>2023</v>
+      </c>
+      <c r="B268" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" t="s">
+        <v>33</v>
+      </c>
+      <c r="E268" t="s">
+        <v>38</v>
+      </c>
+      <c r="F268" t="s">
+        <v>43</v>
+      </c>
+      <c r="H268">
+        <v>85.7</v>
+      </c>
+      <c r="I268" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269">
+        <v>2023</v>
+      </c>
+      <c r="B269" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" t="s">
+        <v>33</v>
+      </c>
+      <c r="E269" t="s">
+        <v>38</v>
+      </c>
+      <c r="F269" t="s">
+        <v>44</v>
+      </c>
+      <c r="H269">
+        <v>91</v>
+      </c>
+      <c r="I269" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270">
+        <v>2023</v>
+      </c>
+      <c r="B270" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" t="s">
+        <v>33</v>
+      </c>
+      <c r="E270" t="s">
+        <v>39</v>
+      </c>
+      <c r="F270" t="s">
+        <v>43</v>
+      </c>
+      <c r="H270">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="I270" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271">
+        <v>2023</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" t="s">
+        <v>33</v>
+      </c>
+      <c r="E271" t="s">
+        <v>39</v>
+      </c>
+      <c r="F271" t="s">
+        <v>44</v>
+      </c>
+      <c r="H271">
+        <v>79.5</v>
+      </c>
+      <c r="I271" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272">
+        <v>2023</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>33</v>
+      </c>
+      <c r="E272" t="s">
+        <v>40</v>
+      </c>
+      <c r="F272" t="s">
+        <v>43</v>
+      </c>
+      <c r="H272">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="I272" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273">
+        <v>2023</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" t="s">
+        <v>33</v>
+      </c>
+      <c r="E273" t="s">
+        <v>40</v>
+      </c>
+      <c r="F273" t="s">
+        <v>44</v>
+      </c>
+      <c r="H273">
+        <v>103.8</v>
+      </c>
+      <c r="I273" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274">
+        <v>2023</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" t="s">
+        <v>33</v>
+      </c>
+      <c r="E274" t="s">
+        <v>41</v>
+      </c>
+      <c r="F274" t="s">
+        <v>43</v>
+      </c>
+      <c r="H274">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="I274" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275">
+        <v>2023</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" t="s">
+        <v>33</v>
+      </c>
+      <c r="E275" t="s">
+        <v>41</v>
+      </c>
+      <c r="F275" t="s">
+        <v>44</v>
+      </c>
+      <c r="H275">
+        <v>67.2</v>
+      </c>
+      <c r="I275" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276">
+        <v>2023</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>33</v>
+      </c>
+      <c r="E276" t="s">
+        <v>42</v>
+      </c>
+      <c r="F276" t="s">
+        <v>43</v>
+      </c>
+      <c r="H276">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="I276" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277">
+        <v>2023</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>33</v>
+      </c>
+      <c r="E277" t="s">
+        <v>42</v>
+      </c>
+      <c r="F277" t="s">
+        <v>44</v>
+      </c>
+      <c r="H277">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="I277" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278">
+        <v>2023</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>34</v>
+      </c>
+      <c r="E278" t="s">
+        <v>37</v>
+      </c>
+      <c r="F278" t="s">
+        <v>43</v>
+      </c>
+      <c r="H278">
+        <v>70.7</v>
+      </c>
+      <c r="I278" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279">
+        <v>2023</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>34</v>
+      </c>
+      <c r="E279" t="s">
+        <v>37</v>
+      </c>
+      <c r="F279" t="s">
+        <v>44</v>
+      </c>
+      <c r="H279">
+        <v>70.3</v>
+      </c>
+      <c r="I279" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280">
+        <v>2023</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s">
+        <v>34</v>
+      </c>
+      <c r="E280" t="s">
+        <v>38</v>
+      </c>
+      <c r="F280" t="s">
+        <v>43</v>
+      </c>
+      <c r="H280">
+        <v>92.3</v>
+      </c>
+      <c r="I280" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281">
+        <v>2023</v>
+      </c>
+      <c r="B281" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>34</v>
+      </c>
+      <c r="E281" t="s">
+        <v>38</v>
+      </c>
+      <c r="F281" t="s">
+        <v>44</v>
+      </c>
+      <c r="H281">
+        <v>99.5</v>
+      </c>
+      <c r="I281" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282">
+        <v>2023</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" t="s">
+        <v>34</v>
+      </c>
+      <c r="E282" t="s">
+        <v>39</v>
+      </c>
+      <c r="F282" t="s">
+        <v>43</v>
+      </c>
+      <c r="H282">
+        <v>70.2</v>
+      </c>
+      <c r="I282" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283">
+        <v>2023</v>
+      </c>
+      <c r="B283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" t="s">
+        <v>34</v>
+      </c>
+      <c r="E283" t="s">
+        <v>39</v>
+      </c>
+      <c r="F283" t="s">
+        <v>44</v>
+      </c>
+      <c r="H283">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="I283" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284">
+        <v>2023</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" t="s">
+        <v>34</v>
+      </c>
+      <c r="E284" t="s">
+        <v>40</v>
+      </c>
+      <c r="F284" t="s">
+        <v>43</v>
+      </c>
+      <c r="H284">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="I284" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285">
+        <v>2023</v>
+      </c>
+      <c r="B285" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" t="s">
+        <v>34</v>
+      </c>
+      <c r="E285" t="s">
+        <v>40</v>
+      </c>
+      <c r="F285" t="s">
+        <v>44</v>
+      </c>
+      <c r="H285">
+        <v>92.3</v>
+      </c>
+      <c r="I285" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286">
+        <v>2023</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" t="s">
+        <v>34</v>
+      </c>
+      <c r="E286" t="s">
+        <v>41</v>
+      </c>
+      <c r="F286" t="s">
+        <v>43</v>
+      </c>
+      <c r="H286">
+        <v>63.2</v>
+      </c>
+      <c r="I286" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287">
+        <v>2023</v>
+      </c>
+      <c r="B287" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" t="s">
+        <v>34</v>
+      </c>
+      <c r="E287" t="s">
+        <v>41</v>
+      </c>
+      <c r="F287" t="s">
+        <v>44</v>
+      </c>
+      <c r="H287">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="I287" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288">
+        <v>2023</v>
+      </c>
+      <c r="B288" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" t="s">
+        <v>34</v>
+      </c>
+      <c r="E288" t="s">
+        <v>42</v>
+      </c>
+      <c r="F288" t="s">
+        <v>43</v>
+      </c>
+      <c r="H288">
+        <v>74.2</v>
+      </c>
+      <c r="I288" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289">
+        <v>2023</v>
+      </c>
+      <c r="B289" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>34</v>
+      </c>
+      <c r="E289" t="s">
+        <v>42</v>
+      </c>
+      <c r="F289" t="s">
+        <v>44</v>
+      </c>
+      <c r="H289">
+        <v>84.3</v>
+      </c>
+      <c r="I289" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290">
+        <v>2023</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" t="s">
+        <v>35</v>
+      </c>
+      <c r="E290" t="s">
+        <v>37</v>
+      </c>
+      <c r="F290" t="s">
+        <v>43</v>
+      </c>
+      <c r="H290">
+        <v>66.3</v>
+      </c>
+      <c r="I290" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291">
+        <v>2023</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" t="s">
+        <v>35</v>
+      </c>
+      <c r="E291" t="s">
+        <v>37</v>
+      </c>
+      <c r="F291" t="s">
+        <v>44</v>
+      </c>
+      <c r="H291">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="I291" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292">
+        <v>2023</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" t="s">
+        <v>35</v>
+      </c>
+      <c r="E292" t="s">
+        <v>38</v>
+      </c>
+      <c r="F292" t="s">
+        <v>43</v>
+      </c>
+      <c r="H292">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="I292" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293">
+        <v>2023</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" t="s">
+        <v>35</v>
+      </c>
+      <c r="E293" t="s">
+        <v>38</v>
+      </c>
+      <c r="F293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H293">
+        <v>101.5</v>
+      </c>
+      <c r="I293" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294">
+        <v>2023</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" t="s">
+        <v>35</v>
+      </c>
+      <c r="E294" t="s">
+        <v>39</v>
+      </c>
+      <c r="F294" t="s">
+        <v>43</v>
+      </c>
+      <c r="H294">
+        <v>76.7</v>
+      </c>
+      <c r="I294" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295">
+        <v>2023</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" t="s">
+        <v>35</v>
+      </c>
+      <c r="E295" t="s">
+        <v>39</v>
+      </c>
+      <c r="F295" t="s">
+        <v>44</v>
+      </c>
+      <c r="H295">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="I295" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296">
+        <v>2023</v>
+      </c>
+      <c r="B296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296" t="s">
+        <v>35</v>
+      </c>
+      <c r="E296" t="s">
+        <v>40</v>
+      </c>
+      <c r="F296" t="s">
+        <v>43</v>
+      </c>
+      <c r="H296">
+        <v>84.3</v>
+      </c>
+      <c r="I296" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297">
+        <v>2023</v>
+      </c>
+      <c r="B297" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" t="s">
+        <v>35</v>
+      </c>
+      <c r="E297" t="s">
+        <v>40</v>
+      </c>
+      <c r="F297" t="s">
+        <v>44</v>
+      </c>
+      <c r="H297">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="I297" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298">
+        <v>2023</v>
+      </c>
+      <c r="B298" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" t="s">
+        <v>35</v>
+      </c>
+      <c r="E298" t="s">
+        <v>41</v>
+      </c>
+      <c r="F298" t="s">
+        <v>43</v>
+      </c>
+      <c r="H298">
+        <v>55</v>
+      </c>
+      <c r="I298" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299">
+        <v>2023</v>
+      </c>
+      <c r="B299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>35</v>
+      </c>
+      <c r="E299" t="s">
+        <v>41</v>
+      </c>
+      <c r="F299" t="s">
+        <v>44</v>
+      </c>
+      <c r="H299">
+        <v>57.1</v>
+      </c>
+      <c r="I299" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300">
+        <v>2023</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" t="s">
+        <v>35</v>
+      </c>
+      <c r="E300" t="s">
+        <v>42</v>
+      </c>
+      <c r="F300" t="s">
+        <v>43</v>
+      </c>
+      <c r="H300">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="I300" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301">
+        <v>2023</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" t="s">
+        <v>35</v>
+      </c>
+      <c r="E301" t="s">
+        <v>42</v>
+      </c>
+      <c r="F301" t="s">
+        <v>44</v>
+      </c>
+      <c r="H301">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="I301" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302">
+        <v>2023</v>
+      </c>
+      <c r="B302" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" t="s">
+        <v>36</v>
+      </c>
+      <c r="E302" t="s">
+        <v>37</v>
+      </c>
+      <c r="F302" t="s">
+        <v>43</v>
+      </c>
+      <c r="H302">
+        <v>66</v>
+      </c>
+      <c r="I302" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303">
+        <v>2023</v>
+      </c>
+      <c r="B303" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303" t="s">
+        <v>36</v>
+      </c>
+      <c r="E303" t="s">
+        <v>37</v>
+      </c>
+      <c r="F303" t="s">
+        <v>44</v>
+      </c>
+      <c r="H303">
+        <v>77.8</v>
+      </c>
+      <c r="I303" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304">
+        <v>2023</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" t="s">
+        <v>36</v>
+      </c>
+      <c r="E304" t="s">
+        <v>38</v>
+      </c>
+      <c r="F304" t="s">
+        <v>43</v>
+      </c>
+      <c r="H304">
+        <v>73.2</v>
+      </c>
+      <c r="I304" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305">
+        <v>2023</v>
+      </c>
+      <c r="B305" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305" t="s">
+        <v>36</v>
+      </c>
+      <c r="E305" t="s">
+        <v>38</v>
+      </c>
+      <c r="F305" t="s">
+        <v>44</v>
+      </c>
+      <c r="H305">
+        <v>105.7</v>
+      </c>
+      <c r="I305" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306">
+        <v>2023</v>
+      </c>
+      <c r="B306" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" t="s">
+        <v>10</v>
+      </c>
+      <c r="D306" t="s">
+        <v>36</v>
+      </c>
+      <c r="E306" t="s">
+        <v>39</v>
+      </c>
+      <c r="F306" t="s">
+        <v>43</v>
+      </c>
+      <c r="H306">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="I306" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307">
+        <v>2023</v>
+      </c>
+      <c r="B307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" t="s">
+        <v>36</v>
+      </c>
+      <c r="E307" t="s">
+        <v>39</v>
+      </c>
+      <c r="F307" t="s">
+        <v>44</v>
+      </c>
+      <c r="H307">
+        <v>86.5</v>
+      </c>
+      <c r="I307" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308">
+        <v>2023</v>
+      </c>
+      <c r="B308" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" t="s">
+        <v>36</v>
+      </c>
+      <c r="E308" t="s">
+        <v>40</v>
+      </c>
+      <c r="F308" t="s">
+        <v>43</v>
+      </c>
+      <c r="H308">
+        <v>60.8</v>
+      </c>
+      <c r="I308" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309">
+        <v>2023</v>
+      </c>
+      <c r="B309" t="s">
+        <v>9</v>
+      </c>
+      <c r="C309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" t="s">
+        <v>36</v>
+      </c>
+      <c r="E309" t="s">
+        <v>40</v>
+      </c>
+      <c r="F309" t="s">
+        <v>44</v>
+      </c>
+      <c r="H309">
+        <v>88</v>
+      </c>
+      <c r="I309" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310">
+        <v>2023</v>
+      </c>
+      <c r="B310" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" t="s">
+        <v>36</v>
+      </c>
+      <c r="E310" t="s">
+        <v>41</v>
+      </c>
+      <c r="F310" t="s">
+        <v>43</v>
+      </c>
+      <c r="H310">
+        <v>51.9</v>
+      </c>
+      <c r="I310" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311">
+        <v>2023</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" t="s">
+        <v>36</v>
+      </c>
+      <c r="E311" t="s">
+        <v>41</v>
+      </c>
+      <c r="F311" t="s">
+        <v>44</v>
+      </c>
+      <c r="H311">
+        <v>64.8</v>
+      </c>
+      <c r="I311" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312">
+        <v>2023</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" t="s">
+        <v>36</v>
+      </c>
+      <c r="E312" t="s">
+        <v>42</v>
+      </c>
+      <c r="F312" t="s">
+        <v>43</v>
+      </c>
+      <c r="H312">
         <v>78.8</v>
       </c>
-      <c r="I131" t="s">
-        <v>43</v>
+      <c r="I312" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313">
+        <v>2023</v>
+      </c>
+      <c r="B313" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313" t="s">
+        <v>36</v>
+      </c>
+      <c r="E313" t="s">
+        <v>42</v>
+      </c>
+      <c r="F313" t="s">
+        <v>44</v>
+      </c>
+      <c r="H313">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="I313" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
